--- a/data/ontario_combined_data_with_coverage.xlsx
+++ b/data/ontario_combined_data_with_coverage.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="4251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="4259">
   <si>
     <t xml:space="preserve">Accident Semester</t>
   </si>
@@ -10137,6 +10137,30 @@
   </si>
   <si>
     <t xml:space="preserve">20.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1E-2</t>
   </si>
   <si>
     <t xml:space="preserve">4614</t>
@@ -34898,13 +34922,13 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B440" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C440" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="D440" t="s">
         <v>3375</v>
@@ -34927,36 +34951,32 @@
       </c>
       <c r="K440"/>
       <c r="L440" t="s">
+        <v>444</v>
+      </c>
+      <c r="M440" t="s">
         <v>3380</v>
       </c>
-      <c r="M440" t="s">
-        <v>310</v>
-      </c>
-      <c r="N440" t="s">
-        <v>3381</v>
-      </c>
-      <c r="O440" t="s">
-        <v>1338</v>
-      </c>
+      <c r="N440"/>
+      <c r="O440"/>
       <c r="P440" t="s">
         <v>3158</v>
       </c>
       <c r="Q440" t="s">
-        <v>891</v>
+        <v>3381</v>
       </c>
       <c r="R440" t="s">
-        <v>656</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>18</v>
+        <v>496</v>
       </c>
       <c r="B441" t="s">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="C441" t="s">
-        <v>3382</v>
+        <v>2007</v>
       </c>
       <c r="D441" t="s">
         <v>3383</v>
@@ -34965,7 +34985,7 @@
         <v>3384</v>
       </c>
       <c r="F441" t="s">
-        <v>23</v>
+        <v>464</v>
       </c>
       <c r="G441" t="s">
         <v>3385</v>
@@ -34979,121 +34999,125 @@
       </c>
       <c r="K441"/>
       <c r="L441" t="s">
-        <v>918</v>
-      </c>
-      <c r="M441"/>
-      <c r="N441"/>
-      <c r="O441"/>
+        <v>3388</v>
+      </c>
+      <c r="M441" t="s">
+        <v>310</v>
+      </c>
+      <c r="N441" t="s">
+        <v>3389</v>
+      </c>
+      <c r="O441" t="s">
+        <v>1338</v>
+      </c>
       <c r="P441" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q441"/>
-      <c r="R441"/>
+        <v>3158</v>
+      </c>
+      <c r="Q441" t="s">
+        <v>891</v>
+      </c>
+      <c r="R441" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B442" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C442" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="D442" t="s">
-        <v>1284</v>
+        <v>3391</v>
       </c>
       <c r="E442" t="s">
-        <v>745</v>
+        <v>3392</v>
       </c>
       <c r="F442" t="s">
         <v>23</v>
       </c>
       <c r="G442" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="H442" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
       <c r="I442"/>
       <c r="J442" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="K442"/>
       <c r="L442" t="s">
-        <v>3393</v>
+        <v>918</v>
       </c>
       <c r="M442"/>
-      <c r="N442" t="s">
-        <v>3394</v>
-      </c>
+      <c r="N442"/>
       <c r="O442"/>
       <c r="P442" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q442"/>
       <c r="R442"/>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B443" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C443" t="s">
-        <v>707</v>
+        <v>3397</v>
       </c>
       <c r="D443" t="s">
-        <v>2384</v>
+        <v>1284</v>
       </c>
       <c r="E443" t="s">
-        <v>3395</v>
+        <v>745</v>
       </c>
       <c r="F443" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G443" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="H443" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="I443"/>
       <c r="J443" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="K443"/>
       <c r="L443" t="s">
-        <v>3399</v>
-      </c>
-      <c r="M443" t="s">
-        <v>2558</v>
-      </c>
-      <c r="N443"/>
+        <v>3401</v>
+      </c>
+      <c r="M443"/>
+      <c r="N443" t="s">
+        <v>3402</v>
+      </c>
       <c r="O443"/>
       <c r="P443" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q443" t="s">
-        <v>3400</v>
-      </c>
-      <c r="R443" t="s">
-        <v>3401</v>
-      </c>
+        <v>3396</v>
+      </c>
+      <c r="Q443"/>
+      <c r="R443"/>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B444" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C444" t="s">
-        <v>3402</v>
+        <v>707</v>
       </c>
       <c r="D444" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E444" t="s">
         <v>3403</v>
@@ -35113,87 +35137,87 @@
       </c>
       <c r="K444"/>
       <c r="L444" t="s">
-        <v>3349</v>
+        <v>3407</v>
       </c>
       <c r="M444" t="s">
-        <v>3407</v>
-      </c>
-      <c r="N444" t="s">
+        <v>2558</v>
+      </c>
+      <c r="N444"/>
+      <c r="O444"/>
+      <c r="P444" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q444" t="s">
         <v>3408</v>
       </c>
-      <c r="O444" t="s">
+      <c r="R444" t="s">
         <v>3409</v>
-      </c>
-      <c r="P444" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q444" t="s">
-        <v>1452</v>
-      </c>
-      <c r="R444" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B445" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C445" t="s">
         <v>3410</v>
       </c>
       <c r="D445" t="s">
-        <v>387</v>
+        <v>2385</v>
       </c>
       <c r="E445" t="s">
         <v>3411</v>
       </c>
       <c r="F445" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G445" t="s">
-        <v>80</v>
+        <v>3412</v>
       </c>
       <c r="H445" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="I445"/>
       <c r="J445" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="K445"/>
       <c r="L445" t="s">
-        <v>3414</v>
+        <v>3349</v>
       </c>
       <c r="M445" t="s">
-        <v>604</v>
-      </c>
-      <c r="N445"/>
-      <c r="O445"/>
+        <v>3415</v>
+      </c>
+      <c r="N445" t="s">
+        <v>3416</v>
+      </c>
+      <c r="O445" t="s">
+        <v>3417</v>
+      </c>
       <c r="P445" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q445" t="s">
-        <v>3415</v>
+        <v>1452</v>
       </c>
       <c r="R445" t="s">
-        <v>3416</v>
+        <v>662</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B446" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C446" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="D446" t="s">
-        <v>3418</v>
+        <v>387</v>
       </c>
       <c r="E446" t="s">
         <v>3419</v>
@@ -35202,56 +35226,52 @@
         <v>71</v>
       </c>
       <c r="G446" t="s">
+        <v>80</v>
+      </c>
+      <c r="H446" t="s">
         <v>3420</v>
-      </c>
-      <c r="H446" t="s">
-        <v>3421</v>
       </c>
       <c r="I446"/>
       <c r="J446" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="K446"/>
       <c r="L446" t="s">
+        <v>3422</v>
+      </c>
+      <c r="M446" t="s">
+        <v>604</v>
+      </c>
+      <c r="N446"/>
+      <c r="O446"/>
+      <c r="P446" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q446" t="s">
         <v>3423</v>
       </c>
-      <c r="M446" t="s">
-        <v>2317</v>
-      </c>
-      <c r="N446" t="s">
+      <c r="R446" t="s">
         <v>3424</v>
-      </c>
-      <c r="O446" t="s">
-        <v>3425</v>
-      </c>
-      <c r="P446" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q446" t="s">
-        <v>3120</v>
-      </c>
-      <c r="R446" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B447" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C447" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D447" t="s">
         <v>3426</v>
-      </c>
-      <c r="D447" t="s">
-        <v>1211</v>
       </c>
       <c r="E447" t="s">
         <v>3427</v>
       </c>
       <c r="F447" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G447" t="s">
         <v>3428</v>
@@ -35261,74 +35281,74 @@
       </c>
       <c r="I447"/>
       <c r="J447" t="s">
-        <v>2029</v>
+        <v>3430</v>
       </c>
       <c r="K447"/>
       <c r="L447" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="M447" t="s">
-        <v>3431</v>
-      </c>
-      <c r="N447"/>
-      <c r="O447"/>
+        <v>2317</v>
+      </c>
+      <c r="N447" t="s">
+        <v>3432</v>
+      </c>
+      <c r="O447" t="s">
+        <v>3433</v>
+      </c>
       <c r="P447" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q447" t="s">
-        <v>3432</v>
+        <v>3120</v>
       </c>
       <c r="R447" t="s">
-        <v>3433</v>
+        <v>737</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B448" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C448" t="s">
         <v>3434</v>
       </c>
       <c r="D448" t="s">
-        <v>1314</v>
+        <v>1211</v>
       </c>
       <c r="E448" t="s">
-        <v>631</v>
+        <v>3435</v>
       </c>
       <c r="F448" t="s">
         <v>97</v>
       </c>
       <c r="G448" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H448" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I448"/>
       <c r="J448" t="s">
-        <v>3437</v>
+        <v>2029</v>
       </c>
       <c r="K448"/>
       <c r="L448" t="s">
         <v>3438</v>
       </c>
       <c r="M448" t="s">
-        <v>753</v>
-      </c>
-      <c r="N448" t="s">
         <v>3439</v>
       </c>
-      <c r="O448" t="s">
+      <c r="N448"/>
+      <c r="O448"/>
+      <c r="P448" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q448" t="s">
         <v>3440</v>
-      </c>
-      <c r="P448" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q448" t="s">
-        <v>453</v>
       </c>
       <c r="R448" t="s">
         <v>3441</v>
@@ -35336,222 +35356,222 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B449" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C449" t="s">
         <v>3442</v>
       </c>
       <c r="D449" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E449" t="s">
+        <v>631</v>
+      </c>
+      <c r="F449" t="s">
+        <v>97</v>
+      </c>
+      <c r="G449" t="s">
         <v>3443</v>
       </c>
-      <c r="E449" t="s">
+      <c r="H449" t="s">
         <v>3444</v>
-      </c>
-      <c r="F449" t="s">
-        <v>122</v>
-      </c>
-      <c r="G449" t="s">
-        <v>3445</v>
-      </c>
-      <c r="H449" t="s">
-        <v>3446</v>
       </c>
       <c r="I449"/>
       <c r="J449" t="s">
-        <v>2934</v>
+        <v>3445</v>
       </c>
       <c r="K449"/>
       <c r="L449" t="s">
+        <v>3446</v>
+      </c>
+      <c r="M449" t="s">
+        <v>753</v>
+      </c>
+      <c r="N449" t="s">
         <v>3447</v>
       </c>
-      <c r="M449" t="s">
-        <v>1416</v>
-      </c>
-      <c r="N449"/>
-      <c r="O449"/>
+      <c r="O449" t="s">
+        <v>3448</v>
+      </c>
       <c r="P449" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q449" t="s">
-        <v>3448</v>
+        <v>453</v>
       </c>
       <c r="R449" t="s">
-        <v>1444</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B450" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C450" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="D450" t="s">
-        <v>1210</v>
+        <v>3451</v>
       </c>
       <c r="E450" t="s">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="F450" t="s">
         <v>122</v>
       </c>
       <c r="G450" t="s">
-        <v>3444</v>
+        <v>3453</v>
       </c>
       <c r="H450" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="I450"/>
       <c r="J450" t="s">
-        <v>3452</v>
+        <v>2934</v>
       </c>
       <c r="K450"/>
       <c r="L450" t="s">
-        <v>3453</v>
+        <v>3455</v>
       </c>
       <c r="M450" t="s">
-        <v>597</v>
-      </c>
-      <c r="N450" t="s">
-        <v>3454</v>
-      </c>
-      <c r="O450" t="s">
-        <v>3455</v>
-      </c>
+        <v>1416</v>
+      </c>
+      <c r="N450"/>
+      <c r="O450"/>
       <c r="P450" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q450" t="s">
         <v>3456</v>
       </c>
       <c r="R450" t="s">
-        <v>3457</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B451" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C451" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E451" t="s">
         <v>3458</v>
       </c>
-      <c r="D451" t="s">
-        <v>376</v>
-      </c>
-      <c r="E451" t="s">
-        <v>3403</v>
-      </c>
       <c r="F451" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G451" t="s">
+        <v>3452</v>
+      </c>
+      <c r="H451" t="s">
         <v>3459</v>
-      </c>
-      <c r="H451" t="s">
-        <v>3460</v>
       </c>
       <c r="I451"/>
       <c r="J451" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="K451"/>
       <c r="L451" t="s">
+        <v>3461</v>
+      </c>
+      <c r="M451" t="s">
+        <v>597</v>
+      </c>
+      <c r="N451" t="s">
         <v>3462</v>
       </c>
-      <c r="M451" t="s">
-        <v>735</v>
-      </c>
-      <c r="N451"/>
-      <c r="O451"/>
+      <c r="O451" t="s">
+        <v>3463</v>
+      </c>
       <c r="P451" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q451" t="s">
-        <v>656</v>
+        <v>3464</v>
       </c>
       <c r="R451" t="s">
-        <v>1496</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B452" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C452" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
       <c r="D452" t="s">
-        <v>2421</v>
+        <v>376</v>
       </c>
       <c r="E452" t="s">
-        <v>3464</v>
+        <v>3411</v>
       </c>
       <c r="F452" t="s">
         <v>148</v>
       </c>
       <c r="G452" t="s">
-        <v>3465</v>
+        <v>3467</v>
       </c>
       <c r="H452" t="s">
-        <v>3466</v>
+        <v>3468</v>
       </c>
       <c r="I452"/>
       <c r="J452" t="s">
-        <v>2441</v>
+        <v>3469</v>
       </c>
       <c r="K452"/>
       <c r="L452" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
       <c r="M452" t="s">
-        <v>3468</v>
-      </c>
-      <c r="N452" t="s">
-        <v>3469</v>
-      </c>
-      <c r="O452" t="s">
-        <v>3470</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="N452"/>
+      <c r="O452"/>
       <c r="P452" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q452" t="s">
-        <v>3471</v>
+        <v>656</v>
       </c>
       <c r="R452" t="s">
-        <v>595</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B453" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C453" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E453" t="s">
         <v>3472</v>
       </c>
-      <c r="D453" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E453" t="s">
-        <v>67</v>
-      </c>
       <c r="F453" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="G453" t="s">
         <v>3473</v>
@@ -35561,348 +35581,352 @@
       </c>
       <c r="I453"/>
       <c r="J453" t="s">
-        <v>3475</v>
+        <v>2441</v>
       </c>
       <c r="K453"/>
       <c r="L453" t="s">
+        <v>3475</v>
+      </c>
+      <c r="M453" t="s">
         <v>3476</v>
       </c>
-      <c r="M453" t="s">
+      <c r="N453" t="s">
         <v>3477</v>
       </c>
-      <c r="N453"/>
-      <c r="O453"/>
+      <c r="O453" t="s">
+        <v>3478</v>
+      </c>
       <c r="P453" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q453" t="s">
-        <v>1065</v>
+        <v>3479</v>
       </c>
       <c r="R453" t="s">
-        <v>349</v>
+        <v>595</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B454" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C454" t="s">
-        <v>3478</v>
+        <v>3480</v>
       </c>
       <c r="D454" t="s">
-        <v>2421</v>
+        <v>1161</v>
       </c>
       <c r="E454" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="F454" t="s">
         <v>174</v>
       </c>
       <c r="G454" t="s">
-        <v>118</v>
+        <v>3481</v>
       </c>
       <c r="H454" t="s">
-        <v>2475</v>
+        <v>3482</v>
       </c>
       <c r="I454"/>
       <c r="J454" t="s">
-        <v>1395</v>
+        <v>3483</v>
       </c>
       <c r="K454"/>
       <c r="L454" t="s">
-        <v>3479</v>
+        <v>3484</v>
       </c>
       <c r="M454" t="s">
-        <v>506</v>
-      </c>
-      <c r="N454" t="s">
-        <v>3480</v>
-      </c>
-      <c r="O454" t="s">
-        <v>3481</v>
-      </c>
+        <v>3485</v>
+      </c>
+      <c r="N454"/>
+      <c r="O454"/>
       <c r="P454" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q454" t="s">
-        <v>2015</v>
+        <v>1065</v>
       </c>
       <c r="R454" t="s">
-        <v>2305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B455" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C455" t="s">
-        <v>3482</v>
+        <v>3486</v>
       </c>
       <c r="D455" t="s">
-        <v>1277</v>
+        <v>2421</v>
       </c>
       <c r="E455" t="s">
-        <v>3483</v>
+        <v>144</v>
       </c>
       <c r="F455" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G455" t="s">
-        <v>3484</v>
+        <v>118</v>
       </c>
       <c r="H455" t="s">
-        <v>3485</v>
+        <v>2475</v>
       </c>
       <c r="I455"/>
       <c r="J455" t="s">
-        <v>3486</v>
+        <v>1395</v>
       </c>
       <c r="K455"/>
       <c r="L455" t="s">
         <v>3487</v>
       </c>
       <c r="M455" t="s">
+        <v>506</v>
+      </c>
+      <c r="N455" t="s">
         <v>3488</v>
       </c>
-      <c r="N455"/>
-      <c r="O455"/>
+      <c r="O455" t="s">
+        <v>3489</v>
+      </c>
       <c r="P455" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q455" t="s">
-        <v>3488</v>
+        <v>2015</v>
       </c>
       <c r="R455" t="s">
-        <v>244</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B456" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C456" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="D456" t="s">
-        <v>434</v>
+        <v>1277</v>
       </c>
       <c r="E456" t="s">
-        <v>1143</v>
+        <v>3491</v>
       </c>
       <c r="F456" t="s">
         <v>200</v>
       </c>
       <c r="G456" t="s">
-        <v>3490</v>
+        <v>3492</v>
       </c>
       <c r="H456" t="s">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="I456"/>
       <c r="J456" t="s">
-        <v>3492</v>
+        <v>3494</v>
       </c>
       <c r="K456"/>
       <c r="L456" t="s">
-        <v>3493</v>
+        <v>3495</v>
       </c>
       <c r="M456" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N456" t="s">
-        <v>3494</v>
-      </c>
-      <c r="O456" t="s">
-        <v>3495</v>
-      </c>
+        <v>3496</v>
+      </c>
+      <c r="N456"/>
+      <c r="O456"/>
       <c r="P456" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q456" t="s">
-        <v>1408</v>
+        <v>3496</v>
       </c>
       <c r="R456" t="s">
-        <v>765</v>
+        <v>244</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B457" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C457" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="D457" t="s">
-        <v>1289</v>
+        <v>434</v>
       </c>
       <c r="E457" t="s">
-        <v>1278</v>
+        <v>1143</v>
       </c>
       <c r="F457" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G457" t="s">
-        <v>477</v>
+        <v>3498</v>
       </c>
       <c r="H457" t="s">
-        <v>3497</v>
+        <v>3499</v>
       </c>
       <c r="I457"/>
       <c r="J457" t="s">
-        <v>3498</v>
+        <v>3500</v>
       </c>
       <c r="K457"/>
       <c r="L457" t="s">
-        <v>255</v>
+        <v>3501</v>
       </c>
       <c r="M457" t="s">
-        <v>3499</v>
-      </c>
-      <c r="N457"/>
-      <c r="O457"/>
+        <v>1515</v>
+      </c>
+      <c r="N457" t="s">
+        <v>3502</v>
+      </c>
+      <c r="O457" t="s">
+        <v>3503</v>
+      </c>
       <c r="P457" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q457" t="s">
-        <v>3500</v>
+        <v>1408</v>
       </c>
       <c r="R457" t="s">
-        <v>3501</v>
+        <v>765</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B458" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C458" t="s">
-        <v>3502</v>
+        <v>3504</v>
       </c>
       <c r="D458" t="s">
-        <v>2481</v>
+        <v>1289</v>
       </c>
       <c r="E458" t="s">
-        <v>1143</v>
+        <v>1278</v>
       </c>
       <c r="F458" t="s">
         <v>225</v>
       </c>
       <c r="G458" t="s">
-        <v>3465</v>
+        <v>477</v>
       </c>
       <c r="H458" t="s">
-        <v>3503</v>
+        <v>3505</v>
       </c>
       <c r="I458"/>
       <c r="J458" t="s">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="K458"/>
       <c r="L458" t="s">
-        <v>3505</v>
+        <v>255</v>
       </c>
       <c r="M458" t="s">
-        <v>3506</v>
-      </c>
-      <c r="N458" t="s">
         <v>3507</v>
       </c>
-      <c r="O458" t="s">
+      <c r="N458"/>
+      <c r="O458"/>
+      <c r="P458" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q458" t="s">
         <v>3508</v>
       </c>
-      <c r="P458" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q458" t="s">
+      <c r="R458" t="s">
         <v>3509</v>
-      </c>
-      <c r="R458" t="s">
-        <v>3510</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B459" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C459" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="D459" t="s">
-        <v>1290</v>
+        <v>2481</v>
       </c>
       <c r="E459" t="s">
-        <v>351</v>
+        <v>1143</v>
       </c>
       <c r="F459" t="s">
         <v>225</v>
       </c>
       <c r="G459" t="s">
-        <v>339</v>
+        <v>3473</v>
       </c>
       <c r="H459" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="I459"/>
       <c r="J459" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="K459"/>
       <c r="L459" t="s">
+        <v>3513</v>
+      </c>
+      <c r="M459" t="s">
         <v>3514</v>
       </c>
-      <c r="M459" t="s">
+      <c r="N459" t="s">
         <v>3515</v>
       </c>
-      <c r="N459"/>
-      <c r="O459"/>
+      <c r="O459" t="s">
+        <v>3516</v>
+      </c>
       <c r="P459" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q459" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="R459" t="s">
-        <v>168</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B460" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C460" t="s">
-        <v>3517</v>
+        <v>3519</v>
       </c>
       <c r="D460" t="s">
-        <v>1260</v>
+        <v>1290</v>
       </c>
       <c r="E460" t="s">
-        <v>3518</v>
+        <v>351</v>
       </c>
       <c r="F460" t="s">
         <v>225</v>
       </c>
       <c r="G460" t="s">
-        <v>3519</v>
+        <v>339</v>
       </c>
       <c r="H460" t="s">
         <v>3520</v>
@@ -35918,82 +35942,82 @@
       <c r="M460" t="s">
         <v>3523</v>
       </c>
-      <c r="N460" t="s">
+      <c r="N460"/>
+      <c r="O460"/>
+      <c r="P460" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q460" t="s">
         <v>3524</v>
       </c>
-      <c r="O460" t="s">
-        <v>3525</v>
-      </c>
-      <c r="P460" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q460" t="s">
-        <v>672</v>
-      </c>
       <c r="R460" t="s">
-        <v>3526</v>
+        <v>168</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B461" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C461" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D461" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E461" t="s">
+        <v>3526</v>
+      </c>
+      <c r="F461" t="s">
+        <v>225</v>
+      </c>
+      <c r="G461" t="s">
         <v>3527</v>
       </c>
-      <c r="D461" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E461" t="s">
+      <c r="H461" t="s">
         <v>3528</v>
-      </c>
-      <c r="F461" t="s">
-        <v>97</v>
-      </c>
-      <c r="G461" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H461" t="s">
-        <v>3529</v>
       </c>
       <c r="I461"/>
       <c r="J461" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="K461"/>
       <c r="L461" t="s">
+        <v>3530</v>
+      </c>
+      <c r="M461" t="s">
         <v>3531</v>
       </c>
-      <c r="M461" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N461"/>
-      <c r="O461"/>
+      <c r="N461" t="s">
+        <v>3532</v>
+      </c>
+      <c r="O461" t="s">
+        <v>3533</v>
+      </c>
       <c r="P461" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q461" t="s">
-        <v>3532</v>
+        <v>672</v>
       </c>
       <c r="R461" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B462" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C462" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="D462" t="s">
-        <v>3535</v>
+        <v>1289</v>
       </c>
       <c r="E462" t="s">
         <v>3536</v>
@@ -36002,10 +36026,10 @@
         <v>97</v>
       </c>
       <c r="G462" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H462" t="s">
         <v>3537</v>
-      </c>
-      <c r="H462" t="s">
-        <v>2548</v>
       </c>
       <c r="I462"/>
       <c r="J462" t="s">
@@ -36016,216 +36040,212 @@
         <v>3539</v>
       </c>
       <c r="M462" t="s">
-        <v>2726</v>
-      </c>
-      <c r="N462" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N462"/>
+      <c r="O462"/>
+      <c r="P462" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q462" t="s">
         <v>3540</v>
       </c>
-      <c r="O462" t="s">
+      <c r="R462" t="s">
         <v>3541</v>
-      </c>
-      <c r="P462" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q462" t="s">
-        <v>1463</v>
-      </c>
-      <c r="R462" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B463" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C463" t="s">
         <v>3542</v>
       </c>
       <c r="D463" t="s">
-        <v>485</v>
+        <v>3543</v>
       </c>
       <c r="E463" t="s">
-        <v>1201</v>
+        <v>3544</v>
       </c>
       <c r="F463" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="G463" t="s">
-        <v>421</v>
+        <v>3545</v>
       </c>
       <c r="H463" t="s">
-        <v>3543</v>
+        <v>2548</v>
       </c>
       <c r="I463"/>
       <c r="J463" t="s">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="K463"/>
       <c r="L463" t="s">
-        <v>3545</v>
+        <v>3547</v>
       </c>
       <c r="M463" t="s">
-        <v>78</v>
-      </c>
-      <c r="N463"/>
-      <c r="O463"/>
+        <v>2726</v>
+      </c>
+      <c r="N463" t="s">
+        <v>3548</v>
+      </c>
+      <c r="O463" t="s">
+        <v>3549</v>
+      </c>
       <c r="P463" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q463" t="s">
-        <v>3500</v>
+        <v>1463</v>
       </c>
       <c r="R463" t="s">
-        <v>3546</v>
+        <v>88</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B464" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C464" t="s">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="D464" t="s">
-        <v>1290</v>
+        <v>485</v>
       </c>
       <c r="E464" t="s">
-        <v>1277</v>
+        <v>1201</v>
       </c>
       <c r="F464" t="s">
         <v>297</v>
       </c>
       <c r="G464" t="s">
-        <v>1278</v>
+        <v>421</v>
       </c>
       <c r="H464" t="s">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="I464"/>
       <c r="J464" t="s">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="K464"/>
       <c r="L464" t="s">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="M464" t="s">
-        <v>875</v>
-      </c>
-      <c r="N464" t="s">
-        <v>3551</v>
-      </c>
-      <c r="O464" t="s">
-        <v>3552</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N464"/>
+      <c r="O464"/>
       <c r="P464" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q464" t="s">
-        <v>3471</v>
+        <v>3508</v>
       </c>
       <c r="R464" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B465" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C465" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="D465" t="s">
-        <v>2379</v>
+        <v>1290</v>
       </c>
       <c r="E465" t="s">
-        <v>387</v>
+        <v>1277</v>
       </c>
       <c r="F465" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="G465" t="s">
-        <v>376</v>
+        <v>1278</v>
       </c>
       <c r="H465" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="I465"/>
       <c r="J465" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="K465"/>
       <c r="L465" t="s">
-        <v>2375</v>
+        <v>3558</v>
       </c>
       <c r="M465" t="s">
-        <v>78</v>
-      </c>
-      <c r="N465"/>
-      <c r="O465"/>
+        <v>875</v>
+      </c>
+      <c r="N465" t="s">
+        <v>3559</v>
+      </c>
+      <c r="O465" t="s">
+        <v>3560</v>
+      </c>
       <c r="P465" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q465" t="s">
-        <v>3557</v>
+        <v>3479</v>
       </c>
       <c r="R465" t="s">
-        <v>3558</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B466" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C466" t="s">
-        <v>3559</v>
+        <v>3562</v>
       </c>
       <c r="D466" t="s">
-        <v>1305</v>
+        <v>2379</v>
       </c>
       <c r="E466" t="s">
-        <v>1278</v>
+        <v>387</v>
       </c>
       <c r="F466" t="s">
         <v>319</v>
       </c>
       <c r="G466" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H466" t="s">
-        <v>3560</v>
+        <v>3563</v>
       </c>
       <c r="I466"/>
       <c r="J466" t="s">
-        <v>3561</v>
+        <v>3564</v>
       </c>
       <c r="K466"/>
       <c r="L466" t="s">
-        <v>3562</v>
+        <v>2375</v>
       </c>
       <c r="M466" t="s">
-        <v>3563</v>
-      </c>
-      <c r="N466" t="s">
-        <v>3560</v>
-      </c>
-      <c r="O466" t="s">
-        <v>3564</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N466"/>
+      <c r="O466"/>
       <c r="P466" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q466" t="s">
         <v>3565</v>
@@ -36236,225 +36256,225 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B467" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C467" t="s">
         <v>3567</v>
       </c>
       <c r="D467" t="s">
-        <v>2379</v>
+        <v>1305</v>
       </c>
       <c r="E467" t="s">
-        <v>1160</v>
+        <v>1278</v>
       </c>
       <c r="F467" t="s">
         <v>319</v>
       </c>
       <c r="G467" t="s">
-        <v>1161</v>
+        <v>387</v>
       </c>
       <c r="H467" t="s">
         <v>3568</v>
       </c>
       <c r="I467"/>
       <c r="J467" t="s">
-        <v>1763</v>
+        <v>3569</v>
       </c>
       <c r="K467"/>
       <c r="L467" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="M467" t="s">
-        <v>3570</v>
-      </c>
-      <c r="N467"/>
-      <c r="O467"/>
+        <v>3571</v>
+      </c>
+      <c r="N467" t="s">
+        <v>3568</v>
+      </c>
+      <c r="O467" t="s">
+        <v>3572</v>
+      </c>
       <c r="P467" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q467" t="s">
-        <v>601</v>
+        <v>3573</v>
       </c>
       <c r="R467" t="s">
-        <v>2680</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B468" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C468" t="s">
-        <v>2687</v>
+        <v>3575</v>
       </c>
       <c r="D468" t="s">
-        <v>2468</v>
+        <v>2379</v>
       </c>
       <c r="E468" t="s">
-        <v>3571</v>
+        <v>1160</v>
       </c>
       <c r="F468" t="s">
         <v>319</v>
       </c>
       <c r="G468" t="s">
-        <v>221</v>
+        <v>1161</v>
       </c>
       <c r="H468" t="s">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="I468"/>
       <c r="J468" t="s">
-        <v>3573</v>
+        <v>1763</v>
       </c>
       <c r="K468"/>
       <c r="L468" t="s">
-        <v>3574</v>
+        <v>3577</v>
       </c>
       <c r="M468" t="s">
-        <v>3575</v>
-      </c>
-      <c r="N468" t="s">
-        <v>3576</v>
-      </c>
-      <c r="O468" t="s">
-        <v>3577</v>
-      </c>
+        <v>3578</v>
+      </c>
+      <c r="N468"/>
+      <c r="O468"/>
       <c r="P468" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q468" t="s">
-        <v>3578</v>
+        <v>601</v>
       </c>
       <c r="R468" t="s">
-        <v>3579</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B469" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C469" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D469" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E469" t="s">
+        <v>3579</v>
+      </c>
+      <c r="F469" t="s">
+        <v>319</v>
+      </c>
+      <c r="G469" t="s">
+        <v>221</v>
+      </c>
+      <c r="H469" t="s">
         <v>3580</v>
-      </c>
-      <c r="D469" t="s">
-        <v>2379</v>
-      </c>
-      <c r="E469" t="s">
-        <v>2998</v>
-      </c>
-      <c r="F469" t="s">
-        <v>297</v>
-      </c>
-      <c r="G469" t="s">
-        <v>2500</v>
-      </c>
-      <c r="H469" t="s">
-        <v>3581</v>
       </c>
       <c r="I469"/>
       <c r="J469" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="K469"/>
       <c r="L469" t="s">
+        <v>3582</v>
+      </c>
+      <c r="M469" t="s">
         <v>3583</v>
       </c>
-      <c r="M469" t="s">
+      <c r="N469" t="s">
         <v>3584</v>
       </c>
-      <c r="N469"/>
-      <c r="O469"/>
+      <c r="O469" t="s">
+        <v>3585</v>
+      </c>
       <c r="P469" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q469" t="s">
-        <v>2403</v>
+        <v>3586</v>
       </c>
       <c r="R469" t="s">
-        <v>3585</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B470" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C470" t="s">
-        <v>2641</v>
+        <v>3588</v>
       </c>
       <c r="D470" t="s">
-        <v>1305</v>
+        <v>2379</v>
       </c>
       <c r="E470" t="s">
-        <v>1267</v>
+        <v>2998</v>
       </c>
       <c r="F470" t="s">
         <v>297</v>
       </c>
       <c r="G470" t="s">
-        <v>1202</v>
+        <v>2500</v>
       </c>
       <c r="H470" t="s">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="I470"/>
       <c r="J470" t="s">
-        <v>3587</v>
+        <v>3590</v>
       </c>
       <c r="K470"/>
       <c r="L470" t="s">
-        <v>3588</v>
+        <v>3591</v>
       </c>
       <c r="M470" t="s">
-        <v>3589</v>
-      </c>
-      <c r="N470" t="s">
-        <v>3590</v>
-      </c>
-      <c r="O470" t="s">
-        <v>3591</v>
-      </c>
+        <v>3592</v>
+      </c>
+      <c r="N470"/>
+      <c r="O470"/>
       <c r="P470" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q470" t="s">
-        <v>1332</v>
+        <v>2403</v>
       </c>
       <c r="R470" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B471" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C471" t="s">
-        <v>3593</v>
+        <v>2641</v>
       </c>
       <c r="D471" t="s">
-        <v>2379</v>
+        <v>1305</v>
       </c>
       <c r="E471" t="s">
-        <v>2385</v>
+        <v>1267</v>
       </c>
       <c r="F471" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="G471" t="s">
-        <v>3418</v>
+        <v>1202</v>
       </c>
       <c r="H471" t="s">
         <v>3594</v>
@@ -36468,93 +36488,93 @@
         <v>3596</v>
       </c>
       <c r="M471" t="s">
-        <v>636</v>
-      </c>
-      <c r="N471"/>
-      <c r="O471"/>
+        <v>3597</v>
+      </c>
+      <c r="N471" t="s">
+        <v>3598</v>
+      </c>
+      <c r="O471" t="s">
+        <v>3599</v>
+      </c>
       <c r="P471" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q471" t="s">
-        <v>3597</v>
+        <v>1332</v>
       </c>
       <c r="R471" t="s">
-        <v>3598</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B472" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C472" t="s">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="D472" t="s">
-        <v>1289</v>
+        <v>2379</v>
       </c>
       <c r="E472" t="s">
-        <v>3600</v>
+        <v>2385</v>
       </c>
       <c r="F472" t="s">
         <v>391</v>
       </c>
       <c r="G472" t="s">
-        <v>2467</v>
+        <v>3426</v>
       </c>
       <c r="H472" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="I472"/>
       <c r="J472" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="K472"/>
       <c r="L472" t="s">
-        <v>918</v>
+        <v>3604</v>
       </c>
       <c r="M472" t="s">
-        <v>3603</v>
-      </c>
-      <c r="N472" t="s">
-        <v>3604</v>
-      </c>
-      <c r="O472" t="s">
+        <v>636</v>
+      </c>
+      <c r="N472"/>
+      <c r="O472"/>
+      <c r="P472" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q472" t="s">
         <v>3605</v>
       </c>
-      <c r="P472" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q472" t="s">
+      <c r="R472" t="s">
         <v>3606</v>
-      </c>
-      <c r="R472" t="s">
-        <v>3607</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B473" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C473" t="s">
+        <v>3607</v>
+      </c>
+      <c r="D473" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E473" t="s">
         <v>3608</v>
       </c>
-      <c r="D473" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E473" t="s">
-        <v>2421</v>
-      </c>
       <c r="F473" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="G473" t="s">
-        <v>1161</v>
+        <v>2467</v>
       </c>
       <c r="H473" t="s">
         <v>3609</v>
@@ -36565,44 +36585,48 @@
       </c>
       <c r="K473"/>
       <c r="L473" t="s">
+        <v>918</v>
+      </c>
+      <c r="M473" t="s">
         <v>3611</v>
       </c>
-      <c r="M473" t="s">
+      <c r="N473" t="s">
         <v>3612</v>
       </c>
-      <c r="N473"/>
-      <c r="O473"/>
+      <c r="O473" t="s">
+        <v>3613</v>
+      </c>
       <c r="P473" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q473" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
       <c r="R473" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B474" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C474" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="D474" t="s">
-        <v>3535</v>
+        <v>1241</v>
       </c>
       <c r="E474" t="s">
-        <v>3616</v>
+        <v>2421</v>
       </c>
       <c r="F474" t="s">
         <v>413</v>
       </c>
       <c r="G474" t="s">
-        <v>258</v>
+        <v>1161</v>
       </c>
       <c r="H474" t="s">
         <v>3617</v>
@@ -36616,87 +36640,87 @@
         <v>3619</v>
       </c>
       <c r="M474" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N474" t="s">
         <v>3620</v>
       </c>
-      <c r="O474" t="s">
+      <c r="N474"/>
+      <c r="O474"/>
+      <c r="P474" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q474" t="s">
         <v>3621</v>
       </c>
-      <c r="P474" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q474" t="s">
-        <v>946</v>
-      </c>
       <c r="R474" t="s">
-        <v>567</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B475" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C475" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="D475" t="s">
-        <v>1290</v>
+        <v>3543</v>
       </c>
       <c r="E475" t="s">
-        <v>3484</v>
+        <v>3624</v>
       </c>
       <c r="F475" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="G475" t="s">
-        <v>3623</v>
+        <v>258</v>
       </c>
       <c r="H475" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="I475"/>
       <c r="J475" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="K475"/>
       <c r="L475" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="M475" t="s">
-        <v>3627</v>
-      </c>
-      <c r="N475"/>
-      <c r="O475"/>
+        <v>1008</v>
+      </c>
+      <c r="N475" t="s">
+        <v>3628</v>
+      </c>
+      <c r="O475" t="s">
+        <v>3629</v>
+      </c>
       <c r="P475" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q475" t="s">
-        <v>3628</v>
+        <v>946</v>
       </c>
       <c r="R475" t="s">
-        <v>3510</v>
+        <v>567</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B476" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C476" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="D476" t="s">
-        <v>2396</v>
+        <v>1290</v>
       </c>
       <c r="E476" t="s">
-        <v>3630</v>
+        <v>3492</v>
       </c>
       <c r="F476" t="s">
         <v>438</v>
@@ -36718,82 +36742,82 @@
       <c r="M476" t="s">
         <v>3635</v>
       </c>
-      <c r="N476" t="s">
+      <c r="N476"/>
+      <c r="O476"/>
+      <c r="P476" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q476" t="s">
         <v>3636</v>
       </c>
-      <c r="O476" t="s">
-        <v>3637</v>
-      </c>
-      <c r="P476" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q476" t="s">
-        <v>3638</v>
-      </c>
       <c r="R476" t="s">
-        <v>3639</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B477" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C477" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D477" t="s">
+        <v>2396</v>
+      </c>
+      <c r="E477" t="s">
+        <v>3638</v>
+      </c>
+      <c r="F477" t="s">
+        <v>438</v>
+      </c>
+      <c r="G477" t="s">
+        <v>3639</v>
+      </c>
+      <c r="H477" t="s">
         <v>3640</v>
-      </c>
-      <c r="D477" t="s">
-        <v>2425</v>
-      </c>
-      <c r="E477" t="s">
-        <v>3641</v>
-      </c>
-      <c r="F477" t="s">
-        <v>464</v>
-      </c>
-      <c r="G477" t="s">
-        <v>684</v>
-      </c>
-      <c r="H477" t="s">
-        <v>3642</v>
       </c>
       <c r="I477"/>
       <c r="J477" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="K477"/>
       <c r="L477" t="s">
+        <v>3642</v>
+      </c>
+      <c r="M477" t="s">
+        <v>3643</v>
+      </c>
+      <c r="N477" t="s">
         <v>3644</v>
       </c>
-      <c r="M477" t="s">
-        <v>1246</v>
-      </c>
-      <c r="N477"/>
-      <c r="O477"/>
+      <c r="O477" t="s">
+        <v>3645</v>
+      </c>
       <c r="P477" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q477" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
       <c r="R477" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B478" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C478" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="D478" t="s">
-        <v>3648</v>
+        <v>2425</v>
       </c>
       <c r="E478" t="s">
         <v>3649</v>
@@ -36802,848 +36826,844 @@
         <v>464</v>
       </c>
       <c r="G478" t="s">
+        <v>684</v>
+      </c>
+      <c r="H478" t="s">
         <v>3650</v>
-      </c>
-      <c r="H478" t="s">
-        <v>3651</v>
       </c>
       <c r="I478"/>
       <c r="J478" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="K478"/>
       <c r="L478" t="s">
+        <v>3652</v>
+      </c>
+      <c r="M478" t="s">
+        <v>1246</v>
+      </c>
+      <c r="N478"/>
+      <c r="O478"/>
+      <c r="P478" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q478" t="s">
         <v>3653</v>
       </c>
-      <c r="M478" t="s">
+      <c r="R478" t="s">
         <v>3654</v>
-      </c>
-      <c r="N478" t="s">
-        <v>3655</v>
-      </c>
-      <c r="O478" t="s">
-        <v>3656</v>
-      </c>
-      <c r="P478" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q478" t="s">
-        <v>3657</v>
-      </c>
-      <c r="R478" t="s">
-        <v>3658</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B479" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C479" t="s">
-        <v>3659</v>
+        <v>3655</v>
       </c>
       <c r="D479" t="s">
-        <v>1234</v>
+        <v>3656</v>
       </c>
       <c r="E479" t="s">
-        <v>3660</v>
+        <v>3657</v>
       </c>
       <c r="F479" t="s">
         <v>464</v>
       </c>
       <c r="G479" t="s">
-        <v>767</v>
+        <v>3658</v>
       </c>
       <c r="H479" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
       <c r="I479"/>
       <c r="J479" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
       <c r="K479"/>
       <c r="L479" t="s">
+        <v>3661</v>
+      </c>
+      <c r="M479" t="s">
+        <v>3662</v>
+      </c>
+      <c r="N479" t="s">
         <v>3663</v>
       </c>
-      <c r="M479" t="s">
-        <v>1065</v>
-      </c>
-      <c r="N479"/>
-      <c r="O479"/>
+      <c r="O479" t="s">
+        <v>3664</v>
+      </c>
       <c r="P479" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="Q479" t="s">
-        <v>2824</v>
+        <v>3665</v>
       </c>
       <c r="R479" t="s">
-        <v>3664</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B480" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C480" t="s">
-        <v>3665</v>
+        <v>3667</v>
       </c>
       <c r="D480" t="s">
-        <v>1201</v>
+        <v>1234</v>
       </c>
       <c r="E480" t="s">
-        <v>3666</v>
+        <v>3668</v>
       </c>
       <c r="F480" t="s">
         <v>464</v>
       </c>
       <c r="G480" t="s">
-        <v>3667</v>
+        <v>767</v>
       </c>
       <c r="H480" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="I480"/>
       <c r="J480" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="K480"/>
       <c r="L480" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="M480" t="s">
-        <v>895</v>
-      </c>
-      <c r="N480" t="s">
-        <v>3671</v>
-      </c>
-      <c r="O480" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N480"/>
+      <c r="O480"/>
+      <c r="P480" t="s">
+        <v>3396</v>
+      </c>
+      <c r="Q480" t="s">
+        <v>2824</v>
+      </c>
+      <c r="R480" t="s">
         <v>3672</v>
-      </c>
-      <c r="P480" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q480" t="s">
-        <v>3673</v>
-      </c>
-      <c r="R480" t="s">
-        <v>1978</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>18</v>
+        <v>496</v>
       </c>
       <c r="B481" t="s">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="C481" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E481" t="s">
         <v>3674</v>
       </c>
-      <c r="D481" t="s">
+      <c r="F481" t="s">
+        <v>464</v>
+      </c>
+      <c r="G481" t="s">
         <v>3675</v>
       </c>
-      <c r="E481" t="s">
+      <c r="H481" t="s">
         <v>3676</v>
-      </c>
-      <c r="F481" t="s">
-        <v>23</v>
-      </c>
-      <c r="G481" t="s">
-        <v>3677</v>
-      </c>
-      <c r="H481" t="s">
-        <v>3678</v>
       </c>
       <c r="I481"/>
       <c r="J481" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="K481"/>
       <c r="L481" t="s">
-        <v>1135</v>
-      </c>
-      <c r="M481"/>
-      <c r="N481"/>
-      <c r="O481"/>
+        <v>3678</v>
+      </c>
+      <c r="M481" t="s">
+        <v>895</v>
+      </c>
+      <c r="N481" t="s">
+        <v>3679</v>
+      </c>
+      <c r="O481" t="s">
+        <v>3680</v>
+      </c>
       <c r="P481" t="s">
-        <v>3680</v>
-      </c>
-      <c r="Q481"/>
-      <c r="R481"/>
+        <v>3396</v>
+      </c>
+      <c r="Q481" t="s">
+        <v>3681</v>
+      </c>
+      <c r="R481" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B482" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C482" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="D482" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
       <c r="E482" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="F482" t="s">
         <v>23</v>
       </c>
       <c r="G482" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="H482" t="s">
-        <v>813</v>
+        <v>3686</v>
       </c>
       <c r="I482"/>
       <c r="J482" t="s">
-        <v>3685</v>
+        <v>3687</v>
       </c>
       <c r="K482"/>
       <c r="L482" t="s">
-        <v>2347</v>
+        <v>1135</v>
       </c>
       <c r="M482"/>
-      <c r="N482" t="s">
-        <v>3686</v>
-      </c>
+      <c r="N482"/>
       <c r="O482"/>
       <c r="P482" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q482"/>
       <c r="R482"/>
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B483" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C483" t="s">
-        <v>3687</v>
+        <v>3689</v>
       </c>
       <c r="D483" t="s">
-        <v>281</v>
+        <v>3690</v>
       </c>
       <c r="E483" t="s">
-        <v>3688</v>
+        <v>3691</v>
       </c>
       <c r="F483" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G483" t="s">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="H483" t="s">
-        <v>1122</v>
+        <v>813</v>
       </c>
       <c r="I483"/>
       <c r="J483" t="s">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="K483"/>
       <c r="L483" t="s">
         <v>2347</v>
       </c>
-      <c r="M483" t="s">
-        <v>3691</v>
-      </c>
-      <c r="N483"/>
+      <c r="M483"/>
+      <c r="N483" t="s">
+        <v>3694</v>
+      </c>
       <c r="O483"/>
       <c r="P483" t="s">
-        <v>3680</v>
-      </c>
-      <c r="Q483" t="s">
-        <v>3692</v>
-      </c>
-      <c r="R483" t="s">
-        <v>986</v>
-      </c>
+        <v>3688</v>
+      </c>
+      <c r="Q483"/>
+      <c r="R483"/>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B484" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C484" t="s">
-        <v>3693</v>
+        <v>3695</v>
       </c>
       <c r="D484" t="s">
-        <v>2346</v>
+        <v>281</v>
       </c>
       <c r="E484" t="s">
-        <v>3694</v>
+        <v>3696</v>
       </c>
       <c r="F484" t="s">
         <v>44</v>
       </c>
       <c r="G484" t="s">
-        <v>3695</v>
+        <v>3697</v>
       </c>
       <c r="H484" t="s">
-        <v>3696</v>
+        <v>1122</v>
       </c>
       <c r="I484"/>
       <c r="J484" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="K484"/>
       <c r="L484" t="s">
-        <v>1135</v>
+        <v>2347</v>
       </c>
       <c r="M484" t="s">
-        <v>3698</v>
-      </c>
-      <c r="N484" t="s">
         <v>3699</v>
       </c>
-      <c r="O484" t="s">
+      <c r="N484"/>
+      <c r="O484"/>
+      <c r="P484" t="s">
+        <v>3688</v>
+      </c>
+      <c r="Q484" t="s">
         <v>3700</v>
       </c>
-      <c r="P484" t="s">
-        <v>3680</v>
-      </c>
-      <c r="Q484" t="s">
-        <v>3701</v>
-      </c>
       <c r="R484" t="s">
-        <v>1794</v>
+        <v>986</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B485" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C485" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D485" t="s">
+        <v>2346</v>
+      </c>
+      <c r="E485" t="s">
         <v>3702</v>
       </c>
-      <c r="D485" t="s">
-        <v>2368</v>
-      </c>
-      <c r="E485" t="s">
+      <c r="F485" t="s">
+        <v>44</v>
+      </c>
+      <c r="G485" t="s">
         <v>3703</v>
       </c>
-      <c r="F485" t="s">
-        <v>71</v>
-      </c>
-      <c r="G485" t="s">
+      <c r="H485" t="s">
         <v>3704</v>
-      </c>
-      <c r="H485" t="s">
-        <v>3705</v>
       </c>
       <c r="I485"/>
       <c r="J485" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="K485"/>
       <c r="L485" t="s">
         <v>1135</v>
       </c>
       <c r="M485" t="s">
+        <v>3706</v>
+      </c>
+      <c r="N485" t="s">
         <v>3707</v>
       </c>
-      <c r="N485"/>
-      <c r="O485"/>
+      <c r="O485" t="s">
+        <v>3708</v>
+      </c>
       <c r="P485" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q485" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="R485" t="s">
-        <v>640</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B486" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C486" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="D486" t="s">
-        <v>270</v>
+        <v>2368</v>
       </c>
       <c r="E486" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="F486" t="s">
         <v>71</v>
       </c>
       <c r="G486" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="H486" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="I486"/>
       <c r="J486" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="K486"/>
       <c r="L486" t="s">
-        <v>2347</v>
+        <v>1135</v>
       </c>
       <c r="M486" t="s">
-        <v>3714</v>
-      </c>
-      <c r="N486" t="s">
-        <v>1152</v>
-      </c>
-      <c r="O486" t="s">
         <v>3715</v>
       </c>
+      <c r="N486"/>
+      <c r="O486"/>
       <c r="P486" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q486" t="s">
-        <v>1099</v>
+        <v>3716</v>
       </c>
       <c r="R486" t="s">
-        <v>1091</v>
+        <v>640</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B487" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C487" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="D487" t="s">
-        <v>3536</v>
+        <v>270</v>
       </c>
       <c r="E487" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="F487" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G487" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="H487" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="I487"/>
       <c r="J487" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="K487"/>
       <c r="L487" t="s">
         <v>2347</v>
       </c>
       <c r="M487" t="s">
-        <v>3721</v>
-      </c>
-      <c r="N487"/>
-      <c r="O487"/>
+        <v>3722</v>
+      </c>
+      <c r="N487" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O487" t="s">
+        <v>3723</v>
+      </c>
       <c r="P487" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q487" t="s">
-        <v>3722</v>
+        <v>1099</v>
       </c>
       <c r="R487" t="s">
-        <v>335</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B488" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C488" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="D488" t="s">
-        <v>3518</v>
+        <v>3544</v>
       </c>
       <c r="E488" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="F488" t="s">
         <v>97</v>
       </c>
       <c r="G488" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
       <c r="H488" t="s">
-        <v>3497</v>
+        <v>3727</v>
       </c>
       <c r="I488"/>
       <c r="J488" t="s">
-        <v>3726</v>
+        <v>3728</v>
       </c>
       <c r="K488"/>
       <c r="L488" t="s">
         <v>2347</v>
       </c>
       <c r="M488" t="s">
-        <v>275</v>
-      </c>
-      <c r="N488" t="s">
-        <v>3727</v>
-      </c>
-      <c r="O488" t="s">
-        <v>3728</v>
-      </c>
+        <v>3729</v>
+      </c>
+      <c r="N488"/>
+      <c r="O488"/>
       <c r="P488" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q488" t="s">
-        <v>125</v>
+        <v>3730</v>
       </c>
       <c r="R488" t="s">
-        <v>1433</v>
+        <v>335</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B489" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C489" t="s">
-        <v>3729</v>
+        <v>3731</v>
       </c>
       <c r="D489" t="s">
-        <v>2480</v>
+        <v>3526</v>
       </c>
       <c r="E489" t="s">
-        <v>3730</v>
+        <v>3732</v>
       </c>
       <c r="F489" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="G489" t="s">
-        <v>3731</v>
+        <v>3733</v>
       </c>
       <c r="H489" t="s">
-        <v>3732</v>
+        <v>3505</v>
       </c>
       <c r="I489"/>
       <c r="J489" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="K489"/>
       <c r="L489" t="s">
         <v>2347</v>
       </c>
       <c r="M489" t="s">
-        <v>1115</v>
-      </c>
-      <c r="N489"/>
-      <c r="O489"/>
+        <v>275</v>
+      </c>
+      <c r="N489" t="s">
+        <v>3735</v>
+      </c>
+      <c r="O489" t="s">
+        <v>3736</v>
+      </c>
       <c r="P489" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q489" t="s">
-        <v>2108</v>
+        <v>125</v>
       </c>
       <c r="R489" t="s">
-        <v>3734</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B490" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C490" t="s">
-        <v>3735</v>
+        <v>3737</v>
       </c>
       <c r="D490" t="s">
-        <v>3736</v>
+        <v>2480</v>
       </c>
       <c r="E490" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
       <c r="F490" t="s">
         <v>122</v>
       </c>
       <c r="G490" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="H490" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="I490"/>
       <c r="J490" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="K490"/>
       <c r="L490" t="s">
-        <v>1135</v>
+        <v>2347</v>
       </c>
       <c r="M490" t="s">
-        <v>3741</v>
-      </c>
-      <c r="N490" t="s">
-        <v>3173</v>
-      </c>
-      <c r="O490" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N490"/>
+      <c r="O490"/>
+      <c r="P490" t="s">
+        <v>3688</v>
+      </c>
+      <c r="Q490" t="s">
+        <v>2108</v>
+      </c>
+      <c r="R490" t="s">
         <v>3742</v>
-      </c>
-      <c r="P490" t="s">
-        <v>3680</v>
-      </c>
-      <c r="Q490" t="s">
-        <v>2428</v>
-      </c>
-      <c r="R490" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B491" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C491" t="s">
         <v>3743</v>
       </c>
       <c r="D491" t="s">
-        <v>1299</v>
+        <v>3744</v>
       </c>
       <c r="E491" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="F491" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G491" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
       <c r="H491" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="I491"/>
       <c r="J491" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="K491"/>
       <c r="L491" t="s">
         <v>1135</v>
       </c>
       <c r="M491" t="s">
-        <v>3748</v>
-      </c>
-      <c r="N491"/>
-      <c r="O491"/>
+        <v>3749</v>
+      </c>
+      <c r="N491" t="s">
+        <v>3173</v>
+      </c>
+      <c r="O491" t="s">
+        <v>3750</v>
+      </c>
       <c r="P491" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q491" t="s">
-        <v>3749</v>
+        <v>2428</v>
       </c>
       <c r="R491" t="s">
-        <v>3750</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B492" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C492" t="s">
         <v>3751</v>
       </c>
       <c r="D492" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E492" t="s">
         <v>3752</v>
-      </c>
-      <c r="E492" t="s">
-        <v>3753</v>
       </c>
       <c r="F492" t="s">
         <v>148</v>
       </c>
       <c r="G492" t="s">
+        <v>3753</v>
+      </c>
+      <c r="H492" t="s">
         <v>3754</v>
-      </c>
-      <c r="H492" t="s">
-        <v>3755</v>
       </c>
       <c r="I492"/>
       <c r="J492" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="K492"/>
       <c r="L492" t="s">
-        <v>2347</v>
+        <v>1135</v>
       </c>
       <c r="M492" t="s">
-        <v>240</v>
-      </c>
-      <c r="N492" t="s">
-        <v>864</v>
-      </c>
-      <c r="O492" t="s">
+        <v>3756</v>
+      </c>
+      <c r="N492"/>
+      <c r="O492"/>
+      <c r="P492" t="s">
+        <v>3688</v>
+      </c>
+      <c r="Q492" t="s">
         <v>3757</v>
       </c>
-      <c r="P492" t="s">
-        <v>3680</v>
-      </c>
-      <c r="Q492" t="s">
+      <c r="R492" t="s">
         <v>3758</v>
-      </c>
-      <c r="R492" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B493" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C493" t="s">
         <v>3759</v>
       </c>
       <c r="D493" t="s">
-        <v>316</v>
+        <v>3760</v>
       </c>
       <c r="E493" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="F493" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="G493" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="H493" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="I493"/>
       <c r="J493" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="K493"/>
       <c r="L493" t="s">
-        <v>1135</v>
+        <v>2347</v>
       </c>
       <c r="M493" t="s">
-        <v>3488</v>
-      </c>
-      <c r="N493"/>
-      <c r="O493"/>
+        <v>240</v>
+      </c>
+      <c r="N493" t="s">
+        <v>864</v>
+      </c>
+      <c r="O493" t="s">
+        <v>3765</v>
+      </c>
       <c r="P493" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q493" t="s">
-        <v>2477</v>
+        <v>3766</v>
       </c>
       <c r="R493" t="s">
-        <v>137</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B494" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C494" t="s">
-        <v>3764</v>
+        <v>3767</v>
       </c>
       <c r="D494" t="s">
-        <v>3600</v>
+        <v>316</v>
       </c>
       <c r="E494" t="s">
-        <v>3765</v>
+        <v>3768</v>
       </c>
       <c r="F494" t="s">
         <v>174</v>
       </c>
       <c r="G494" t="s">
-        <v>3766</v>
+        <v>3769</v>
       </c>
       <c r="H494" t="s">
-        <v>3208</v>
+        <v>3770</v>
       </c>
       <c r="I494"/>
       <c r="J494" t="s">
-        <v>3767</v>
+        <v>3771</v>
       </c>
       <c r="K494"/>
       <c r="L494" t="s">
         <v>1135</v>
       </c>
       <c r="M494" t="s">
-        <v>3768</v>
-      </c>
-      <c r="N494" t="s">
-        <v>3769</v>
-      </c>
-      <c r="O494" t="s">
-        <v>3770</v>
-      </c>
+        <v>3496</v>
+      </c>
+      <c r="N494"/>
+      <c r="O494"/>
       <c r="P494" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q494" t="s">
-        <v>205</v>
+        <v>2477</v>
       </c>
       <c r="R494" t="s">
-        <v>1083</v>
+        <v>137</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B495" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C495" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="D495" t="s">
-        <v>316</v>
+        <v>3608</v>
       </c>
       <c r="E495" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="F495" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G495" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
       <c r="H495" t="s">
-        <v>3774</v>
+        <v>3208</v>
       </c>
       <c r="I495"/>
       <c r="J495" t="s">
@@ -37654,132 +37674,136 @@
         <v>1135</v>
       </c>
       <c r="M495" t="s">
-        <v>405</v>
-      </c>
-      <c r="N495"/>
-      <c r="O495"/>
+        <v>3776</v>
+      </c>
+      <c r="N495" t="s">
+        <v>3777</v>
+      </c>
+      <c r="O495" t="s">
+        <v>3778</v>
+      </c>
       <c r="P495" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q495" t="s">
-        <v>453</v>
+        <v>205</v>
       </c>
       <c r="R495" t="s">
-        <v>3776</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B496" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C496" t="s">
-        <v>3777</v>
+        <v>3779</v>
       </c>
       <c r="D496" t="s">
-        <v>3536</v>
+        <v>316</v>
       </c>
       <c r="E496" t="s">
-        <v>3778</v>
+        <v>3780</v>
       </c>
       <c r="F496" t="s">
         <v>200</v>
       </c>
       <c r="G496" t="s">
-        <v>3779</v>
+        <v>3781</v>
       </c>
       <c r="H496" t="s">
-        <v>3780</v>
+        <v>3782</v>
       </c>
       <c r="I496"/>
       <c r="J496" t="s">
-        <v>3781</v>
+        <v>3783</v>
       </c>
       <c r="K496"/>
       <c r="L496" t="s">
         <v>1135</v>
       </c>
       <c r="M496" t="s">
-        <v>1453</v>
-      </c>
-      <c r="N496" t="s">
-        <v>3782</v>
-      </c>
-      <c r="O496" t="s">
-        <v>3783</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N496"/>
+      <c r="O496"/>
       <c r="P496" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q496" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="R496" t="s">
-        <v>2387</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B497" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C497" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="D497" t="s">
-        <v>316</v>
+        <v>3544</v>
       </c>
       <c r="E497" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="F497" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G497" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
       <c r="H497" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="I497"/>
       <c r="J497" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="K497"/>
       <c r="L497" t="s">
         <v>1135</v>
       </c>
       <c r="M497" t="s">
-        <v>194</v>
-      </c>
-      <c r="N497"/>
-      <c r="O497"/>
+        <v>1453</v>
+      </c>
+      <c r="N497" t="s">
+        <v>3790</v>
+      </c>
+      <c r="O497" t="s">
+        <v>3791</v>
+      </c>
       <c r="P497" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q497" t="s">
-        <v>3789</v>
+        <v>347</v>
       </c>
       <c r="R497" t="s">
-        <v>3790</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B498" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C498" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="D498" t="s">
-        <v>3792</v>
+        <v>316</v>
       </c>
       <c r="E498" t="s">
         <v>3793</v>
@@ -37802,36 +37826,32 @@
         <v>1135</v>
       </c>
       <c r="M498" t="s">
-        <v>1971</v>
-      </c>
-      <c r="N498" t="s">
+        <v>194</v>
+      </c>
+      <c r="N498"/>
+      <c r="O498"/>
+      <c r="P498" t="s">
+        <v>3688</v>
+      </c>
+      <c r="Q498" t="s">
         <v>3797</v>
       </c>
-      <c r="O498" t="s">
+      <c r="R498" t="s">
         <v>3798</v>
-      </c>
-      <c r="P498" t="s">
-        <v>3680</v>
-      </c>
-      <c r="Q498" t="s">
-        <v>3799</v>
-      </c>
-      <c r="R498" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B499" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C499" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D499" t="s">
         <v>3800</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1329</v>
       </c>
       <c r="E499" t="s">
         <v>3801</v>
@@ -37854,190 +37874,190 @@
         <v>1135</v>
       </c>
       <c r="M499" t="s">
-        <v>2179</v>
-      </c>
-      <c r="N499"/>
-      <c r="O499"/>
+        <v>1971</v>
+      </c>
+      <c r="N499" t="s">
+        <v>3805</v>
+      </c>
+      <c r="O499" t="s">
+        <v>3806</v>
+      </c>
       <c r="P499" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q499" t="s">
-        <v>971</v>
+        <v>3807</v>
       </c>
       <c r="R499" t="s">
-        <v>3701</v>
+        <v>345</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B500" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C500" t="s">
-        <v>3805</v>
+        <v>3808</v>
       </c>
       <c r="D500" t="s">
-        <v>2474</v>
+        <v>1329</v>
       </c>
       <c r="E500" t="s">
-        <v>3806</v>
+        <v>3809</v>
       </c>
       <c r="F500" t="s">
         <v>225</v>
       </c>
       <c r="G500" t="s">
-        <v>3807</v>
+        <v>3810</v>
       </c>
       <c r="H500" t="s">
-        <v>3808</v>
+        <v>3811</v>
       </c>
       <c r="I500"/>
       <c r="J500" t="s">
-        <v>3809</v>
+        <v>3812</v>
       </c>
       <c r="K500"/>
       <c r="L500" t="s">
         <v>1135</v>
       </c>
       <c r="M500" t="s">
-        <v>704</v>
-      </c>
-      <c r="N500" t="s">
-        <v>3810</v>
-      </c>
-      <c r="O500" t="s">
-        <v>3811</v>
-      </c>
+        <v>2179</v>
+      </c>
+      <c r="N500"/>
+      <c r="O500"/>
       <c r="P500" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q500" t="s">
-        <v>100</v>
+        <v>971</v>
       </c>
       <c r="R500" t="s">
-        <v>623</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B501" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C501" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
       <c r="D501" t="s">
-        <v>270</v>
+        <v>2474</v>
       </c>
       <c r="E501" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="F501" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="G501" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="H501" t="s">
-        <v>3175</v>
+        <v>3816</v>
       </c>
       <c r="I501"/>
       <c r="J501" t="s">
-        <v>3815</v>
+        <v>3817</v>
       </c>
       <c r="K501"/>
       <c r="L501" t="s">
-        <v>2347</v>
+        <v>1135</v>
       </c>
       <c r="M501" t="s">
-        <v>256</v>
-      </c>
-      <c r="N501"/>
-      <c r="O501"/>
+        <v>704</v>
+      </c>
+      <c r="N501" t="s">
+        <v>3818</v>
+      </c>
+      <c r="O501" t="s">
+        <v>3819</v>
+      </c>
       <c r="P501" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q501" t="s">
-        <v>3816</v>
+        <v>100</v>
       </c>
       <c r="R501" t="s">
-        <v>2242</v>
+        <v>623</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B502" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C502" t="s">
-        <v>3817</v>
+        <v>3820</v>
       </c>
       <c r="D502" t="s">
-        <v>1284</v>
+        <v>270</v>
       </c>
       <c r="E502" t="s">
-        <v>3818</v>
+        <v>3821</v>
       </c>
       <c r="F502" t="s">
         <v>97</v>
       </c>
       <c r="G502" t="s">
-        <v>3819</v>
+        <v>3822</v>
       </c>
       <c r="H502" t="s">
-        <v>3820</v>
+        <v>3175</v>
       </c>
       <c r="I502"/>
       <c r="J502" t="s">
-        <v>3821</v>
+        <v>3823</v>
       </c>
       <c r="K502"/>
       <c r="L502" t="s">
-        <v>1162</v>
+        <v>2347</v>
       </c>
       <c r="M502" t="s">
-        <v>2725</v>
-      </c>
-      <c r="N502" t="s">
-        <v>3822</v>
-      </c>
-      <c r="O502" t="s">
-        <v>3823</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N502"/>
+      <c r="O502"/>
       <c r="P502" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q502" t="s">
-        <v>1960</v>
+        <v>3824</v>
       </c>
       <c r="R502" t="s">
-        <v>3824</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B503" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C503" t="s">
         <v>3825</v>
       </c>
       <c r="D503" t="s">
-        <v>2486</v>
+        <v>1284</v>
       </c>
       <c r="E503" t="s">
         <v>3826</v>
       </c>
       <c r="F503" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="G503" t="s">
         <v>3827</v>
@@ -38051,199 +38071,199 @@
       </c>
       <c r="K503"/>
       <c r="L503" t="s">
-        <v>2347</v>
+        <v>1162</v>
       </c>
       <c r="M503" t="s">
-        <v>63</v>
-      </c>
-      <c r="N503"/>
-      <c r="O503"/>
+        <v>2725</v>
+      </c>
+      <c r="N503" t="s">
+        <v>3830</v>
+      </c>
+      <c r="O503" t="s">
+        <v>3831</v>
+      </c>
       <c r="P503" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q503" t="s">
-        <v>825</v>
+        <v>1960</v>
       </c>
       <c r="R503" t="s">
-        <v>3018</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B504" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C504" t="s">
-        <v>3830</v>
+        <v>3833</v>
       </c>
       <c r="D504" t="s">
-        <v>293</v>
+        <v>2486</v>
       </c>
       <c r="E504" t="s">
-        <v>3831</v>
+        <v>3834</v>
       </c>
       <c r="F504" t="s">
         <v>297</v>
       </c>
       <c r="G504" t="s">
-        <v>3832</v>
+        <v>3835</v>
       </c>
       <c r="H504" t="s">
-        <v>3833</v>
+        <v>3836</v>
       </c>
       <c r="I504"/>
       <c r="J504" t="s">
-        <v>3834</v>
+        <v>3837</v>
       </c>
       <c r="K504"/>
       <c r="L504" t="s">
-        <v>1135</v>
+        <v>2347</v>
       </c>
       <c r="M504" t="s">
-        <v>1594</v>
-      </c>
-      <c r="N504" t="s">
-        <v>3399</v>
-      </c>
-      <c r="O504" t="s">
-        <v>3835</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="N504"/>
+      <c r="O504"/>
       <c r="P504" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q504" t="s">
-        <v>3836</v>
+        <v>825</v>
       </c>
       <c r="R504" t="s">
-        <v>1275</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B505" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C505" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="D505" t="s">
-        <v>3838</v>
+        <v>293</v>
       </c>
       <c r="E505" t="s">
         <v>3839</v>
       </c>
       <c r="F505" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="G505" t="s">
         <v>3840</v>
       </c>
       <c r="H505" t="s">
-        <v>873</v>
+        <v>3841</v>
       </c>
       <c r="I505"/>
       <c r="J505" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="K505"/>
       <c r="L505" t="s">
-        <v>2347</v>
+        <v>1135</v>
       </c>
       <c r="M505" t="s">
-        <v>3185</v>
-      </c>
-      <c r="N505"/>
-      <c r="O505"/>
+        <v>1594</v>
+      </c>
+      <c r="N505" t="s">
+        <v>3407</v>
+      </c>
+      <c r="O505" t="s">
+        <v>3843</v>
+      </c>
       <c r="P505" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q505" t="s">
-        <v>229</v>
+        <v>3844</v>
       </c>
       <c r="R505" t="s">
-        <v>154</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B506" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C506" t="s">
-        <v>3842</v>
+        <v>3845</v>
       </c>
       <c r="D506" t="s">
-        <v>3843</v>
+        <v>3846</v>
       </c>
       <c r="E506" t="s">
-        <v>3844</v>
+        <v>3847</v>
       </c>
       <c r="F506" t="s">
         <v>319</v>
       </c>
       <c r="G506" t="s">
-        <v>3845</v>
+        <v>3848</v>
       </c>
       <c r="H506" t="s">
-        <v>3307</v>
+        <v>873</v>
       </c>
       <c r="I506"/>
       <c r="J506" t="s">
-        <v>3846</v>
+        <v>3849</v>
       </c>
       <c r="K506"/>
       <c r="L506" t="s">
         <v>2347</v>
       </c>
       <c r="M506" t="s">
-        <v>1689</v>
-      </c>
-      <c r="N506" t="s">
-        <v>3341</v>
-      </c>
-      <c r="O506" t="s">
-        <v>3847</v>
-      </c>
+        <v>3185</v>
+      </c>
+      <c r="N506"/>
+      <c r="O506"/>
       <c r="P506" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q506" t="s">
-        <v>3401</v>
+        <v>229</v>
       </c>
       <c r="R506" t="s">
-        <v>3848</v>
+        <v>154</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B507" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C507" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="D507" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
       <c r="E507" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="F507" t="s">
         <v>319</v>
       </c>
       <c r="G507" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="H507" t="s">
-        <v>3853</v>
+        <v>3307</v>
       </c>
       <c r="I507"/>
       <c r="J507" t="s">
@@ -38254,278 +38274,278 @@
         <v>2347</v>
       </c>
       <c r="M507" t="s">
-        <v>1496</v>
-      </c>
-      <c r="N507"/>
-      <c r="O507"/>
+        <v>1689</v>
+      </c>
+      <c r="N507" t="s">
+        <v>3341</v>
+      </c>
+      <c r="O507" t="s">
+        <v>3855</v>
+      </c>
       <c r="P507" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q507" t="s">
-        <v>2124</v>
+        <v>3409</v>
       </c>
       <c r="R507" t="s">
-        <v>671</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B508" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C508" t="s">
-        <v>3855</v>
+        <v>3857</v>
       </c>
       <c r="D508" t="s">
-        <v>3850</v>
+        <v>3858</v>
       </c>
       <c r="E508" t="s">
-        <v>3856</v>
+        <v>3859</v>
       </c>
       <c r="F508" t="s">
         <v>319</v>
       </c>
       <c r="G508" t="s">
-        <v>3857</v>
+        <v>3860</v>
       </c>
       <c r="H508" t="s">
-        <v>3858</v>
+        <v>3861</v>
       </c>
       <c r="I508"/>
       <c r="J508" t="s">
-        <v>3859</v>
+        <v>3862</v>
       </c>
       <c r="K508"/>
       <c r="L508" t="s">
         <v>2347</v>
       </c>
       <c r="M508" t="s">
-        <v>537</v>
-      </c>
-      <c r="N508" t="s">
-        <v>3860</v>
-      </c>
-      <c r="O508" t="s">
-        <v>3861</v>
-      </c>
+        <v>1496</v>
+      </c>
+      <c r="N508"/>
+      <c r="O508"/>
       <c r="P508" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q508" t="s">
-        <v>3501</v>
+        <v>2124</v>
       </c>
       <c r="R508" t="s">
-        <v>544</v>
+        <v>671</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B509" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C509" t="s">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="D509" t="s">
-        <v>2486</v>
+        <v>3858</v>
       </c>
       <c r="E509" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="F509" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="G509" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="H509" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="I509"/>
       <c r="J509" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="K509"/>
       <c r="L509" t="s">
-        <v>1135</v>
+        <v>2347</v>
       </c>
       <c r="M509" t="s">
-        <v>51</v>
-      </c>
-      <c r="N509"/>
-      <c r="O509"/>
+        <v>537</v>
+      </c>
+      <c r="N509" t="s">
+        <v>3868</v>
+      </c>
+      <c r="O509" t="s">
+        <v>3869</v>
+      </c>
       <c r="P509" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q509" t="s">
-        <v>1841</v>
+        <v>3509</v>
       </c>
       <c r="R509" t="s">
-        <v>2267</v>
+        <v>544</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B510" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C510" t="s">
-        <v>3867</v>
+        <v>3870</v>
       </c>
       <c r="D510" t="s">
-        <v>3868</v>
+        <v>2486</v>
       </c>
       <c r="E510" t="s">
-        <v>3869</v>
+        <v>3871</v>
       </c>
       <c r="F510" t="s">
         <v>297</v>
       </c>
       <c r="G510" t="s">
-        <v>3870</v>
+        <v>3872</v>
       </c>
       <c r="H510" t="s">
-        <v>3359</v>
+        <v>3873</v>
       </c>
       <c r="I510"/>
       <c r="J510" t="s">
-        <v>3871</v>
+        <v>3874</v>
       </c>
       <c r="K510"/>
       <c r="L510" t="s">
-        <v>2347</v>
+        <v>1135</v>
       </c>
       <c r="M510" t="s">
-        <v>545</v>
-      </c>
-      <c r="N510" t="s">
-        <v>3872</v>
-      </c>
-      <c r="O510" t="s">
-        <v>3873</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N510"/>
+      <c r="O510"/>
       <c r="P510" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q510" t="s">
-        <v>1487</v>
+        <v>1841</v>
       </c>
       <c r="R510" t="s">
-        <v>567</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B511" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C511" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="D511" t="s">
-        <v>3843</v>
+        <v>3876</v>
       </c>
       <c r="E511" t="s">
-        <v>3875</v>
+        <v>3877</v>
       </c>
       <c r="F511" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="G511" t="s">
-        <v>3876</v>
+        <v>3878</v>
       </c>
       <c r="H511" t="s">
-        <v>3877</v>
+        <v>3359</v>
       </c>
       <c r="I511"/>
       <c r="J511" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="K511"/>
       <c r="L511" t="s">
         <v>2347</v>
       </c>
       <c r="M511" t="s">
-        <v>88</v>
-      </c>
-      <c r="N511"/>
-      <c r="O511"/>
+        <v>545</v>
+      </c>
+      <c r="N511" t="s">
+        <v>3880</v>
+      </c>
+      <c r="O511" t="s">
+        <v>3881</v>
+      </c>
       <c r="P511" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q511" t="s">
-        <v>1995</v>
+        <v>1487</v>
       </c>
       <c r="R511" t="s">
-        <v>1577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B512" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C512" t="s">
-        <v>3879</v>
+        <v>3882</v>
       </c>
       <c r="D512" t="s">
-        <v>3880</v>
+        <v>3851</v>
       </c>
       <c r="E512" t="s">
-        <v>3881</v>
+        <v>3883</v>
       </c>
       <c r="F512" t="s">
         <v>391</v>
       </c>
       <c r="G512" t="s">
-        <v>3882</v>
+        <v>3884</v>
       </c>
       <c r="H512" t="s">
-        <v>1305</v>
+        <v>3885</v>
       </c>
       <c r="I512"/>
       <c r="J512" t="s">
-        <v>3883</v>
+        <v>3886</v>
       </c>
       <c r="K512"/>
       <c r="L512" t="s">
         <v>2347</v>
       </c>
       <c r="M512" t="s">
-        <v>3570</v>
-      </c>
-      <c r="N512" t="s">
-        <v>3884</v>
-      </c>
-      <c r="O512" t="s">
-        <v>3885</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N512"/>
+      <c r="O512"/>
       <c r="P512" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q512" t="s">
-        <v>786</v>
+        <v>1995</v>
       </c>
       <c r="R512" t="s">
-        <v>3886</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B513" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C513" t="s">
         <v>3887</v>
@@ -38537,13 +38557,13 @@
         <v>3889</v>
       </c>
       <c r="F513" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="G513" t="s">
         <v>3890</v>
       </c>
       <c r="H513" t="s">
-        <v>3250</v>
+        <v>1305</v>
       </c>
       <c r="I513"/>
       <c r="J513" t="s">
@@ -38551,193 +38571,193 @@
       </c>
       <c r="K513"/>
       <c r="L513" t="s">
-        <v>1135</v>
+        <v>2347</v>
       </c>
       <c r="M513" t="s">
+        <v>3578</v>
+      </c>
+      <c r="N513" t="s">
         <v>3892</v>
       </c>
-      <c r="N513"/>
-      <c r="O513"/>
+      <c r="O513" t="s">
+        <v>3893</v>
+      </c>
       <c r="P513" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q513" t="s">
-        <v>3893</v>
+        <v>786</v>
       </c>
       <c r="R513" t="s">
-        <v>2267</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B514" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C514" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="D514" t="s">
-        <v>270</v>
+        <v>3896</v>
       </c>
       <c r="E514" t="s">
-        <v>3895</v>
+        <v>3897</v>
       </c>
       <c r="F514" t="s">
         <v>413</v>
       </c>
       <c r="G514" t="s">
-        <v>3896</v>
+        <v>3898</v>
       </c>
       <c r="H514" t="s">
-        <v>3897</v>
+        <v>3250</v>
       </c>
       <c r="I514"/>
       <c r="J514" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
       <c r="K514"/>
       <c r="L514" t="s">
         <v>1135</v>
       </c>
       <c r="M514" t="s">
-        <v>3899</v>
-      </c>
-      <c r="N514" t="s">
         <v>3900</v>
       </c>
-      <c r="O514" t="s">
+      <c r="N514"/>
+      <c r="O514"/>
+      <c r="P514" t="s">
+        <v>3688</v>
+      </c>
+      <c r="Q514" t="s">
         <v>3901</v>
       </c>
-      <c r="P514" t="s">
-        <v>3680</v>
-      </c>
-      <c r="Q514" t="s">
-        <v>359</v>
-      </c>
       <c r="R514" t="s">
-        <v>2782</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B515" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C515" t="s">
         <v>3902</v>
       </c>
       <c r="D515" t="s">
-        <v>3675</v>
+        <v>270</v>
       </c>
       <c r="E515" t="s">
         <v>3903</v>
       </c>
       <c r="F515" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="G515" t="s">
         <v>3904</v>
       </c>
       <c r="H515" t="s">
-        <v>3155</v>
+        <v>3905</v>
       </c>
       <c r="I515"/>
       <c r="J515" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="K515"/>
       <c r="L515" t="s">
-        <v>1162</v>
+        <v>1135</v>
       </c>
       <c r="M515" t="s">
-        <v>217</v>
-      </c>
-      <c r="N515"/>
-      <c r="O515"/>
+        <v>3907</v>
+      </c>
+      <c r="N515" t="s">
+        <v>3908</v>
+      </c>
+      <c r="O515" t="s">
+        <v>3909</v>
+      </c>
       <c r="P515" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q515" t="s">
-        <v>530</v>
+        <v>359</v>
       </c>
       <c r="R515" t="s">
-        <v>288</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B516" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C516" t="s">
-        <v>3906</v>
+        <v>3910</v>
       </c>
       <c r="D516" t="s">
-        <v>3907</v>
+        <v>3683</v>
       </c>
       <c r="E516" t="s">
-        <v>3908</v>
+        <v>3911</v>
       </c>
       <c r="F516" t="s">
         <v>438</v>
       </c>
       <c r="G516" t="s">
-        <v>3909</v>
+        <v>3912</v>
       </c>
       <c r="H516" t="s">
-        <v>3910</v>
+        <v>3155</v>
       </c>
       <c r="I516"/>
       <c r="J516" t="s">
-        <v>3911</v>
+        <v>3913</v>
       </c>
       <c r="K516"/>
       <c r="L516" t="s">
-        <v>2347</v>
+        <v>1162</v>
       </c>
       <c r="M516" t="s">
-        <v>2180</v>
-      </c>
-      <c r="N516" t="s">
-        <v>3497</v>
-      </c>
-      <c r="O516" t="s">
-        <v>3912</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N516"/>
+      <c r="O516"/>
       <c r="P516" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q516" t="s">
-        <v>3913</v>
+        <v>530</v>
       </c>
       <c r="R516" t="s">
-        <v>3914</v>
+        <v>288</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B517" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C517" t="s">
+        <v>3914</v>
+      </c>
+      <c r="D517" t="s">
         <v>3915</v>
-      </c>
-      <c r="D517" t="s">
-        <v>208</v>
       </c>
       <c r="E517" t="s">
         <v>3916</v>
       </c>
       <c r="F517" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="G517" t="s">
         <v>3917</v>
@@ -38754,84 +38774,84 @@
         <v>2347</v>
       </c>
       <c r="M517" t="s">
+        <v>2180</v>
+      </c>
+      <c r="N517" t="s">
+        <v>3505</v>
+      </c>
+      <c r="O517" t="s">
         <v>3920</v>
       </c>
-      <c r="N517"/>
-      <c r="O517"/>
       <c r="P517" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q517" t="s">
-        <v>1523</v>
+        <v>3921</v>
       </c>
       <c r="R517" t="s">
-        <v>1962</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B518" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C518" t="s">
-        <v>3921</v>
+        <v>3923</v>
       </c>
       <c r="D518" t="s">
-        <v>3922</v>
+        <v>208</v>
       </c>
       <c r="E518" t="s">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="F518" t="s">
         <v>464</v>
       </c>
       <c r="G518" t="s">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="H518" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="I518"/>
       <c r="J518" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="K518"/>
       <c r="L518" t="s">
-        <v>1137</v>
+        <v>2347</v>
       </c>
       <c r="M518" t="s">
-        <v>1681</v>
-      </c>
-      <c r="N518" t="s">
-        <v>3927</v>
-      </c>
-      <c r="O518" t="s">
         <v>3928</v>
       </c>
+      <c r="N518"/>
+      <c r="O518"/>
       <c r="P518" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q518" t="s">
-        <v>1496</v>
+        <v>1523</v>
       </c>
       <c r="R518" t="s">
-        <v>3929</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B519" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C519" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D519" t="s">
         <v>3930</v>
-      </c>
-      <c r="D519" t="s">
-        <v>2493</v>
       </c>
       <c r="E519" t="s">
         <v>3931</v>
@@ -38851,81 +38871,81 @@
       </c>
       <c r="K519"/>
       <c r="L519" t="s">
-        <v>2347</v>
+        <v>1137</v>
       </c>
       <c r="M519" t="s">
-        <v>166</v>
-      </c>
-      <c r="N519"/>
-      <c r="O519"/>
+        <v>1681</v>
+      </c>
+      <c r="N519" t="s">
+        <v>3935</v>
+      </c>
+      <c r="O519" t="s">
+        <v>3936</v>
+      </c>
       <c r="P519" t="s">
-        <v>3680</v>
+        <v>3688</v>
       </c>
       <c r="Q519" t="s">
-        <v>1612</v>
+        <v>1496</v>
       </c>
       <c r="R519" t="s">
-        <v>3935</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B520" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C520" t="s">
-        <v>3936</v>
+        <v>3938</v>
       </c>
       <c r="D520" t="s">
-        <v>3937</v>
+        <v>2493</v>
       </c>
       <c r="E520" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="F520" t="s">
         <v>464</v>
       </c>
       <c r="G520" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="H520" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="I520"/>
       <c r="J520" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="K520"/>
       <c r="L520" t="s">
         <v>2347</v>
       </c>
       <c r="M520" t="s">
-        <v>655</v>
-      </c>
-      <c r="N520" t="s">
-        <v>3942</v>
-      </c>
-      <c r="O520" t="s">
+        <v>166</v>
+      </c>
+      <c r="N520"/>
+      <c r="O520"/>
+      <c r="P520" t="s">
+        <v>3688</v>
+      </c>
+      <c r="Q520" t="s">
+        <v>1612</v>
+      </c>
+      <c r="R520" t="s">
         <v>3943</v>
-      </c>
-      <c r="P520" t="s">
-        <v>3680</v>
-      </c>
-      <c r="Q520" t="s">
-        <v>478</v>
-      </c>
-      <c r="R520" t="s">
-        <v>2376</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>18</v>
+        <v>496</v>
       </c>
       <c r="B521" t="s">
-        <v>19</v>
+        <v>497</v>
       </c>
       <c r="C521" t="s">
         <v>3944</v>
@@ -38937,7 +38957,7 @@
         <v>3946</v>
       </c>
       <c r="F521" t="s">
-        <v>23</v>
+        <v>464</v>
       </c>
       <c r="G521" t="s">
         <v>3947</v>
@@ -38951,23 +38971,33 @@
       </c>
       <c r="K521"/>
       <c r="L521" t="s">
+        <v>2347</v>
+      </c>
+      <c r="M521" t="s">
+        <v>655</v>
+      </c>
+      <c r="N521" t="s">
         <v>3950</v>
       </c>
-      <c r="M521"/>
-      <c r="N521"/>
-      <c r="O521"/>
+      <c r="O521" t="s">
+        <v>3951</v>
+      </c>
       <c r="P521" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q521"/>
-      <c r="R521"/>
+        <v>3688</v>
+      </c>
+      <c r="Q521" t="s">
+        <v>478</v>
+      </c>
+      <c r="R521" t="s">
+        <v>2376</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B522" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C522" t="s">
         <v>3952</v>
@@ -38996,22 +39026,20 @@
         <v>3958</v>
       </c>
       <c r="M522"/>
-      <c r="N522" t="s">
-        <v>3959</v>
-      </c>
+      <c r="N522"/>
       <c r="O522"/>
       <c r="P522" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q522"/>
       <c r="R522"/>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B523" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C523" t="s">
         <v>3960</v>
@@ -39023,7 +39051,7 @@
         <v>3962</v>
       </c>
       <c r="F523" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G523" t="s">
         <v>3963</v>
@@ -39039,27 +39067,23 @@
       <c r="L523" t="s">
         <v>3966</v>
       </c>
-      <c r="M523" t="s">
-        <v>1515</v>
-      </c>
-      <c r="N523"/>
+      <c r="M523"/>
+      <c r="N523" t="s">
+        <v>3967</v>
+      </c>
       <c r="O523"/>
       <c r="P523" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q523" t="s">
-        <v>1433</v>
-      </c>
-      <c r="R523" t="s">
-        <v>3967</v>
-      </c>
+        <v>3959</v>
+      </c>
+      <c r="Q523"/>
+      <c r="R523"/>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B524" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C524" t="s">
         <v>3968</v>
@@ -39085,170 +39109,170 @@
       </c>
       <c r="K524"/>
       <c r="L524" t="s">
-        <v>3958</v>
+        <v>3974</v>
       </c>
       <c r="M524" t="s">
-        <v>63</v>
-      </c>
-      <c r="N524" t="s">
-        <v>3974</v>
-      </c>
-      <c r="O524" t="s">
+        <v>1515</v>
+      </c>
+      <c r="N524"/>
+      <c r="O524"/>
+      <c r="P524" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q524" t="s">
+        <v>1433</v>
+      </c>
+      <c r="R524" t="s">
         <v>3975</v>
-      </c>
-      <c r="P524" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q524" t="s">
-        <v>3976</v>
-      </c>
-      <c r="R524" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B525" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C525" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D525" t="s">
         <v>3977</v>
       </c>
-      <c r="D525" t="s">
+      <c r="E525" t="s">
         <v>3978</v>
       </c>
-      <c r="E525" t="s">
+      <c r="F525" t="s">
+        <v>44</v>
+      </c>
+      <c r="G525" t="s">
         <v>3979</v>
       </c>
-      <c r="F525" t="s">
-        <v>71</v>
-      </c>
-      <c r="G525" t="s">
+      <c r="H525" t="s">
         <v>3980</v>
-      </c>
-      <c r="H525" t="s">
-        <v>3981</v>
       </c>
       <c r="I525"/>
       <c r="J525" t="s">
-        <v>3982</v>
+        <v>3981</v>
       </c>
       <c r="K525"/>
       <c r="L525" t="s">
         <v>3966</v>
       </c>
       <c r="M525" t="s">
-        <v>1444</v>
-      </c>
-      <c r="N525"/>
-      <c r="O525"/>
+        <v>63</v>
+      </c>
+      <c r="N525" t="s">
+        <v>3982</v>
+      </c>
+      <c r="O525" t="s">
+        <v>3983</v>
+      </c>
       <c r="P525" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q525" t="s">
-        <v>1441</v>
+        <v>3984</v>
       </c>
       <c r="R525" t="s">
-        <v>554</v>
+        <v>51</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B526" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C526" t="s">
-        <v>3983</v>
+        <v>3985</v>
       </c>
       <c r="D526" t="s">
-        <v>3984</v>
+        <v>3986</v>
       </c>
       <c r="E526" t="s">
-        <v>3985</v>
+        <v>3987</v>
       </c>
       <c r="F526" t="s">
         <v>71</v>
       </c>
       <c r="G526" t="s">
-        <v>3986</v>
+        <v>3988</v>
       </c>
       <c r="H526" t="s">
-        <v>3987</v>
+        <v>3989</v>
       </c>
       <c r="I526"/>
       <c r="J526" t="s">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="K526"/>
       <c r="L526" t="s">
-        <v>3950</v>
+        <v>3974</v>
       </c>
       <c r="M526" t="s">
-        <v>1971</v>
-      </c>
-      <c r="N526" t="s">
-        <v>3989</v>
-      </c>
-      <c r="O526" t="s">
-        <v>3990</v>
-      </c>
+        <v>1444</v>
+      </c>
+      <c r="N526"/>
+      <c r="O526"/>
       <c r="P526" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q526" t="s">
-        <v>3991</v>
+        <v>1441</v>
       </c>
       <c r="R526" t="s">
-        <v>3992</v>
+        <v>554</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B527" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C527" t="s">
+        <v>3991</v>
+      </c>
+      <c r="D527" t="s">
+        <v>3992</v>
+      </c>
+      <c r="E527" t="s">
         <v>3993</v>
       </c>
-      <c r="D527" t="s">
+      <c r="F527" t="s">
+        <v>71</v>
+      </c>
+      <c r="G527" t="s">
         <v>3994</v>
       </c>
-      <c r="E527" t="s">
+      <c r="H527" t="s">
         <v>3995</v>
-      </c>
-      <c r="F527" t="s">
-        <v>97</v>
-      </c>
-      <c r="G527" t="s">
-        <v>3996</v>
-      </c>
-      <c r="H527" t="s">
-        <v>3997</v>
       </c>
       <c r="I527"/>
       <c r="J527" t="s">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="K527"/>
       <c r="L527" t="s">
+        <v>3958</v>
+      </c>
+      <c r="M527" t="s">
+        <v>1971</v>
+      </c>
+      <c r="N527" t="s">
+        <v>3997</v>
+      </c>
+      <c r="O527" t="s">
+        <v>3998</v>
+      </c>
+      <c r="P527" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q527" t="s">
         <v>3999</v>
-      </c>
-      <c r="M527" t="s">
-        <v>2824</v>
-      </c>
-      <c r="N527"/>
-      <c r="O527"/>
-      <c r="P527" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q527" t="s">
-        <v>2782</v>
       </c>
       <c r="R527" t="s">
         <v>4000</v>
@@ -39256,10 +39280,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B528" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C528" t="s">
         <v>4001</v>
@@ -39285,33 +39309,29 @@
       </c>
       <c r="K528"/>
       <c r="L528" t="s">
-        <v>3950</v>
+        <v>4007</v>
       </c>
       <c r="M528" t="s">
-        <v>385</v>
-      </c>
-      <c r="N528" t="s">
-        <v>4007</v>
-      </c>
-      <c r="O528" t="s">
+        <v>2824</v>
+      </c>
+      <c r="N528"/>
+      <c r="O528"/>
+      <c r="P528" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q528" t="s">
+        <v>2782</v>
+      </c>
+      <c r="R528" t="s">
         <v>4008</v>
-      </c>
-      <c r="P528" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q528" t="s">
-        <v>654</v>
-      </c>
-      <c r="R528" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B529" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C529" t="s">
         <v>4009</v>
@@ -39323,7 +39343,7 @@
         <v>4011</v>
       </c>
       <c r="F529" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="G529" t="s">
         <v>4012</v>
@@ -39337,281 +39357,281 @@
       </c>
       <c r="K529"/>
       <c r="L529" t="s">
+        <v>3958</v>
+      </c>
+      <c r="M529" t="s">
+        <v>385</v>
+      </c>
+      <c r="N529" t="s">
         <v>4015</v>
       </c>
-      <c r="M529" t="s">
-        <v>729</v>
-      </c>
-      <c r="N529"/>
-      <c r="O529"/>
+      <c r="O529" t="s">
+        <v>4016</v>
+      </c>
       <c r="P529" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q529" t="s">
-        <v>825</v>
+        <v>654</v>
       </c>
       <c r="R529" t="s">
-        <v>2006</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B530" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C530" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
       <c r="D530" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="E530" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="F530" t="s">
         <v>122</v>
       </c>
       <c r="G530" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
       <c r="H530" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="I530"/>
       <c r="J530" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="K530"/>
       <c r="L530" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="M530" t="s">
-        <v>2557</v>
-      </c>
-      <c r="N530" t="s">
-        <v>4023</v>
-      </c>
-      <c r="O530" t="s">
-        <v>4024</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="N530"/>
+      <c r="O530"/>
       <c r="P530" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q530" t="s">
-        <v>3280</v>
+        <v>825</v>
       </c>
       <c r="R530" t="s">
-        <v>4025</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B531" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C531" t="s">
+        <v>4024</v>
+      </c>
+      <c r="D531" t="s">
+        <v>4025</v>
+      </c>
+      <c r="E531" t="s">
         <v>4026</v>
       </c>
-      <c r="D531" t="s">
+      <c r="F531" t="s">
+        <v>122</v>
+      </c>
+      <c r="G531" t="s">
         <v>4027</v>
       </c>
-      <c r="E531" t="s">
+      <c r="H531" t="s">
         <v>4028</v>
-      </c>
-      <c r="F531" t="s">
-        <v>148</v>
-      </c>
-      <c r="G531" t="s">
-        <v>4029</v>
-      </c>
-      <c r="H531" t="s">
-        <v>4030</v>
       </c>
       <c r="I531"/>
       <c r="J531" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="K531"/>
       <c r="L531" t="s">
+        <v>4030</v>
+      </c>
+      <c r="M531" t="s">
+        <v>2557</v>
+      </c>
+      <c r="N531" t="s">
+        <v>4031</v>
+      </c>
+      <c r="O531" t="s">
         <v>4032</v>
       </c>
-      <c r="M531" t="s">
-        <v>648</v>
-      </c>
-      <c r="N531"/>
-      <c r="O531"/>
       <c r="P531" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q531" t="s">
-        <v>275</v>
+        <v>3280</v>
       </c>
       <c r="R531" t="s">
-        <v>791</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B532" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C532" t="s">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="D532" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="E532" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
       <c r="F532" t="s">
         <v>148</v>
       </c>
       <c r="G532" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="H532" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="I532"/>
       <c r="J532" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="K532"/>
       <c r="L532" t="s">
-        <v>4015</v>
+        <v>4040</v>
       </c>
       <c r="M532" t="s">
-        <v>112</v>
-      </c>
-      <c r="N532" t="s">
-        <v>2294</v>
-      </c>
-      <c r="O532" t="s">
-        <v>4039</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="N532"/>
+      <c r="O532"/>
       <c r="P532" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q532" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="R532" t="s">
-        <v>1496</v>
+        <v>791</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B533" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C533" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="D533" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="E533" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
       <c r="F533" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="G533" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="H533" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="I533"/>
       <c r="J533" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="K533"/>
       <c r="L533" t="s">
-        <v>4046</v>
+        <v>4023</v>
       </c>
       <c r="M533" t="s">
-        <v>397</v>
-      </c>
-      <c r="N533"/>
-      <c r="O533"/>
+        <v>112</v>
+      </c>
+      <c r="N533" t="s">
+        <v>2294</v>
+      </c>
+      <c r="O533" t="s">
+        <v>4047</v>
+      </c>
       <c r="P533" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q533" t="s">
-        <v>1565</v>
+        <v>288</v>
       </c>
       <c r="R533" t="s">
-        <v>636</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B534" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C534" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="D534" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
       <c r="E534" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="F534" t="s">
         <v>174</v>
       </c>
       <c r="G534" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="H534" t="s">
-        <v>4020</v>
+        <v>4052</v>
       </c>
       <c r="I534"/>
       <c r="J534" t="s">
-        <v>4051</v>
+        <v>4053</v>
       </c>
       <c r="K534"/>
       <c r="L534" t="s">
-        <v>4052</v>
+        <v>4054</v>
       </c>
       <c r="M534" t="s">
-        <v>544</v>
-      </c>
-      <c r="N534" t="s">
-        <v>4053</v>
-      </c>
-      <c r="O534" t="s">
-        <v>4054</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="N534"/>
+      <c r="O534"/>
       <c r="P534" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q534" t="s">
-        <v>529</v>
+        <v>1565</v>
       </c>
       <c r="R534" t="s">
-        <v>545</v>
+        <v>636</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B535" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C535" t="s">
         <v>4055</v>
@@ -39623,143 +39643,147 @@
         <v>4057</v>
       </c>
       <c r="F535" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="G535" t="s">
         <v>4058</v>
       </c>
       <c r="H535" t="s">
-        <v>4059</v>
+        <v>4028</v>
       </c>
       <c r="I535"/>
       <c r="J535" t="s">
-        <v>4060</v>
+        <v>4059</v>
       </c>
       <c r="K535"/>
       <c r="L535" t="s">
+        <v>4060</v>
+      </c>
+      <c r="M535" t="s">
+        <v>544</v>
+      </c>
+      <c r="N535" t="s">
         <v>4061</v>
       </c>
-      <c r="M535" t="s">
-        <v>1269</v>
-      </c>
-      <c r="N535"/>
-      <c r="O535"/>
+      <c r="O535" t="s">
+        <v>4062</v>
+      </c>
       <c r="P535" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q535" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="R535" t="s">
-        <v>361</v>
+        <v>545</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B536" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C536" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="D536" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="E536" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
       <c r="F536" t="s">
         <v>200</v>
       </c>
       <c r="G536" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="H536" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="I536"/>
       <c r="J536" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
       <c r="K536"/>
       <c r="L536" t="s">
-        <v>4061</v>
+        <v>4069</v>
       </c>
       <c r="M536" t="s">
-        <v>4068</v>
-      </c>
-      <c r="N536" t="s">
-        <v>4069</v>
-      </c>
-      <c r="O536" t="s">
-        <v>4070</v>
-      </c>
+        <v>1269</v>
+      </c>
+      <c r="N536"/>
+      <c r="O536"/>
       <c r="P536" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q536" t="s">
-        <v>2800</v>
+        <v>567</v>
       </c>
       <c r="R536" t="s">
-        <v>2267</v>
+        <v>361</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B537" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C537" t="s">
+        <v>4070</v>
+      </c>
+      <c r="D537" t="s">
         <v>4071</v>
       </c>
-      <c r="D537" t="s">
+      <c r="E537" t="s">
         <v>4072</v>
       </c>
-      <c r="E537" t="s">
+      <c r="F537" t="s">
+        <v>200</v>
+      </c>
+      <c r="G537" t="s">
         <v>4073</v>
       </c>
-      <c r="F537" t="s">
-        <v>225</v>
-      </c>
-      <c r="G537" t="s">
+      <c r="H537" t="s">
         <v>4074</v>
-      </c>
-      <c r="H537" t="s">
-        <v>4075</v>
       </c>
       <c r="I537"/>
       <c r="J537" t="s">
-        <v>4076</v>
+        <v>4075</v>
       </c>
       <c r="K537"/>
       <c r="L537" t="s">
-        <v>1244</v>
+        <v>4069</v>
       </c>
       <c r="M537" t="s">
-        <v>384</v>
-      </c>
-      <c r="N537"/>
-      <c r="O537"/>
+        <v>4076</v>
+      </c>
+      <c r="N537" t="s">
+        <v>4077</v>
+      </c>
+      <c r="O537" t="s">
+        <v>4078</v>
+      </c>
       <c r="P537" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q537" t="s">
-        <v>4077</v>
+        <v>2800</v>
       </c>
       <c r="R537" t="s">
-        <v>4078</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B538" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C538" t="s">
         <v>4079</v>
@@ -39785,51 +39809,47 @@
       </c>
       <c r="K538"/>
       <c r="L538" t="s">
+        <v>1244</v>
+      </c>
+      <c r="M538" t="s">
+        <v>384</v>
+      </c>
+      <c r="N538"/>
+      <c r="O538"/>
+      <c r="P538" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q538" t="s">
         <v>4085</v>
       </c>
-      <c r="M538" t="s">
-        <v>554</v>
-      </c>
-      <c r="N538" t="s">
+      <c r="R538" t="s">
         <v>4086</v>
-      </c>
-      <c r="O538" t="s">
-        <v>4087</v>
-      </c>
-      <c r="P538" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q538" t="s">
-        <v>3337</v>
-      </c>
-      <c r="R538" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B539" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C539" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D539" t="s">
         <v>4088</v>
       </c>
-      <c r="D539" t="s">
+      <c r="E539" t="s">
         <v>4089</v>
-      </c>
-      <c r="E539" t="s">
-        <v>4090</v>
       </c>
       <c r="F539" t="s">
         <v>225</v>
       </c>
       <c r="G539" t="s">
+        <v>4090</v>
+      </c>
+      <c r="H539" t="s">
         <v>4091</v>
-      </c>
-      <c r="H539" t="s">
-        <v>3910</v>
       </c>
       <c r="I539"/>
       <c r="J539" t="s">
@@ -39840,387 +39860,387 @@
         <v>4093</v>
       </c>
       <c r="M539" t="s">
-        <v>3967</v>
-      </c>
-      <c r="N539"/>
-      <c r="O539"/>
+        <v>554</v>
+      </c>
+      <c r="N539" t="s">
+        <v>4094</v>
+      </c>
+      <c r="O539" t="s">
+        <v>4095</v>
+      </c>
       <c r="P539" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q539" t="s">
-        <v>506</v>
+        <v>3337</v>
       </c>
       <c r="R539" t="s">
-        <v>1995</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B540" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C540" t="s">
-        <v>4094</v>
+        <v>4096</v>
       </c>
       <c r="D540" t="s">
-        <v>4095</v>
+        <v>4097</v>
       </c>
       <c r="E540" t="s">
-        <v>4096</v>
+        <v>4098</v>
       </c>
       <c r="F540" t="s">
         <v>225</v>
       </c>
       <c r="G540" t="s">
-        <v>4097</v>
+        <v>4099</v>
       </c>
       <c r="H540" t="s">
-        <v>4098</v>
+        <v>3918</v>
       </c>
       <c r="I540"/>
       <c r="J540" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="K540"/>
       <c r="L540" t="s">
-        <v>4093</v>
+        <v>4101</v>
       </c>
       <c r="M540" t="s">
-        <v>4100</v>
-      </c>
-      <c r="N540" t="s">
-        <v>3974</v>
-      </c>
-      <c r="O540" t="s">
-        <v>4101</v>
-      </c>
+        <v>3975</v>
+      </c>
+      <c r="N540"/>
+      <c r="O540"/>
       <c r="P540" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q540" t="s">
-        <v>1397</v>
+        <v>506</v>
       </c>
       <c r="R540" t="s">
-        <v>4102</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B541" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C541" t="s">
+        <v>4102</v>
+      </c>
+      <c r="D541" t="s">
         <v>4103</v>
       </c>
-      <c r="D541" t="s">
+      <c r="E541" t="s">
         <v>4104</v>
       </c>
-      <c r="E541" t="s">
+      <c r="F541" t="s">
+        <v>225</v>
+      </c>
+      <c r="G541" t="s">
         <v>4105</v>
       </c>
-      <c r="F541" t="s">
-        <v>97</v>
-      </c>
-      <c r="G541" t="s">
+      <c r="H541" t="s">
         <v>4106</v>
-      </c>
-      <c r="H541" t="s">
-        <v>4107</v>
       </c>
       <c r="I541"/>
       <c r="J541" t="s">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="K541"/>
       <c r="L541" t="s">
-        <v>521</v>
+        <v>4101</v>
       </c>
       <c r="M541" t="s">
-        <v>2108</v>
-      </c>
-      <c r="N541"/>
-      <c r="O541"/>
+        <v>4108</v>
+      </c>
+      <c r="N541" t="s">
+        <v>3982</v>
+      </c>
+      <c r="O541" t="s">
+        <v>4109</v>
+      </c>
       <c r="P541" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q541" t="s">
-        <v>855</v>
+        <v>1397</v>
       </c>
       <c r="R541" t="s">
-        <v>112</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B542" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C542" t="s">
-        <v>4109</v>
+        <v>4111</v>
       </c>
       <c r="D542" t="s">
-        <v>4110</v>
+        <v>4112</v>
       </c>
       <c r="E542" t="s">
-        <v>4111</v>
+        <v>4113</v>
       </c>
       <c r="F542" t="s">
         <v>97</v>
       </c>
       <c r="G542" t="s">
-        <v>4112</v>
+        <v>4114</v>
       </c>
       <c r="H542" t="s">
-        <v>4113</v>
+        <v>4115</v>
       </c>
       <c r="I542"/>
       <c r="J542" t="s">
-        <v>4114</v>
+        <v>4116</v>
       </c>
       <c r="K542"/>
       <c r="L542" t="s">
         <v>521</v>
       </c>
       <c r="M542" t="s">
-        <v>1441</v>
-      </c>
-      <c r="N542" t="s">
-        <v>4115</v>
-      </c>
-      <c r="O542" t="s">
-        <v>4116</v>
-      </c>
+        <v>2108</v>
+      </c>
+      <c r="N542"/>
+      <c r="O542"/>
       <c r="P542" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q542" t="s">
-        <v>629</v>
+        <v>855</v>
       </c>
       <c r="R542" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B543" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C543" t="s">
         <v>4117</v>
       </c>
       <c r="D543" t="s">
-        <v>1178</v>
+        <v>4118</v>
       </c>
       <c r="E543" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="F543" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="G543" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
       <c r="H543" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="I543"/>
       <c r="J543" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="K543"/>
       <c r="L543" t="s">
         <v>521</v>
       </c>
       <c r="M543" t="s">
-        <v>405</v>
-      </c>
-      <c r="N543"/>
-      <c r="O543"/>
+        <v>1441</v>
+      </c>
+      <c r="N543" t="s">
+        <v>4123</v>
+      </c>
+      <c r="O543" t="s">
+        <v>4124</v>
+      </c>
       <c r="P543" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q543" t="s">
-        <v>265</v>
+        <v>629</v>
       </c>
       <c r="R543" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B544" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C544" t="s">
-        <v>4122</v>
+        <v>4125</v>
       </c>
       <c r="D544" t="s">
-        <v>4123</v>
+        <v>1178</v>
       </c>
       <c r="E544" t="s">
-        <v>4124</v>
+        <v>4126</v>
       </c>
       <c r="F544" t="s">
         <v>297</v>
       </c>
       <c r="G544" t="s">
-        <v>4125</v>
+        <v>4127</v>
       </c>
       <c r="H544" t="s">
-        <v>4126</v>
+        <v>4128</v>
       </c>
       <c r="I544"/>
       <c r="J544" t="s">
-        <v>4127</v>
+        <v>4129</v>
       </c>
       <c r="K544"/>
       <c r="L544" t="s">
-        <v>4128</v>
+        <v>521</v>
       </c>
       <c r="M544" t="s">
-        <v>4129</v>
-      </c>
-      <c r="N544" t="s">
-        <v>4130</v>
-      </c>
-      <c r="O544" t="s">
-        <v>4131</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N544"/>
+      <c r="O544"/>
       <c r="P544" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q544" t="s">
-        <v>4132</v>
+        <v>265</v>
       </c>
       <c r="R544" t="s">
-        <v>194</v>
+        <v>384</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B545" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C545" t="s">
+        <v>4130</v>
+      </c>
+      <c r="D545" t="s">
+        <v>4131</v>
+      </c>
+      <c r="E545" t="s">
+        <v>4132</v>
+      </c>
+      <c r="F545" t="s">
+        <v>297</v>
+      </c>
+      <c r="G545" t="s">
         <v>4133</v>
       </c>
-      <c r="D545" t="s">
+      <c r="H545" t="s">
         <v>4134</v>
-      </c>
-      <c r="E545" t="s">
-        <v>4135</v>
-      </c>
-      <c r="F545" t="s">
-        <v>319</v>
-      </c>
-      <c r="G545" t="s">
-        <v>4136</v>
-      </c>
-      <c r="H545" t="s">
-        <v>4137</v>
       </c>
       <c r="I545"/>
       <c r="J545" t="s">
-        <v>4138</v>
+        <v>4135</v>
       </c>
       <c r="K545"/>
       <c r="L545" t="s">
-        <v>4128</v>
+        <v>4136</v>
       </c>
       <c r="M545" t="s">
-        <v>1907</v>
-      </c>
-      <c r="N545"/>
-      <c r="O545"/>
+        <v>4137</v>
+      </c>
+      <c r="N545" t="s">
+        <v>4138</v>
+      </c>
+      <c r="O545" t="s">
+        <v>4139</v>
+      </c>
       <c r="P545" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q545" t="s">
-        <v>2125</v>
+        <v>4140</v>
       </c>
       <c r="R545" t="s">
-        <v>891</v>
+        <v>194</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B546" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C546" t="s">
-        <v>4139</v>
+        <v>4141</v>
       </c>
       <c r="D546" t="s">
-        <v>4140</v>
+        <v>4142</v>
       </c>
       <c r="E546" t="s">
-        <v>3988</v>
+        <v>4143</v>
       </c>
       <c r="F546" t="s">
         <v>319</v>
       </c>
       <c r="G546" t="s">
-        <v>4141</v>
+        <v>4144</v>
       </c>
       <c r="H546" t="s">
-        <v>4142</v>
+        <v>4145</v>
       </c>
       <c r="I546"/>
       <c r="J546" t="s">
-        <v>4143</v>
+        <v>4146</v>
       </c>
       <c r="K546"/>
       <c r="L546" t="s">
-        <v>536</v>
+        <v>4136</v>
       </c>
       <c r="M546" t="s">
-        <v>793</v>
-      </c>
-      <c r="N546" t="s">
-        <v>4144</v>
-      </c>
-      <c r="O546" t="s">
-        <v>4145</v>
-      </c>
+        <v>1907</v>
+      </c>
+      <c r="N546"/>
+      <c r="O546"/>
       <c r="P546" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q546" t="s">
-        <v>964</v>
+        <v>2125</v>
       </c>
       <c r="R546" t="s">
-        <v>640</v>
+        <v>891</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B547" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C547" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="D547" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="E547" t="s">
-        <v>4148</v>
+        <v>3996</v>
       </c>
       <c r="F547" t="s">
         <v>319</v>
@@ -40237,81 +40257,81 @@
       </c>
       <c r="K547"/>
       <c r="L547" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="M547" t="s">
-        <v>1441</v>
-      </c>
-      <c r="N547"/>
-      <c r="O547"/>
+        <v>793</v>
+      </c>
+      <c r="N547" t="s">
+        <v>4152</v>
+      </c>
+      <c r="O547" t="s">
+        <v>4153</v>
+      </c>
       <c r="P547" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q547" t="s">
-        <v>4152</v>
+        <v>964</v>
       </c>
       <c r="R547" t="s">
-        <v>4132</v>
+        <v>640</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B548" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C548" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="D548" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E548" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
       <c r="F548" t="s">
         <v>319</v>
       </c>
       <c r="G548" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="H548" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="I548"/>
       <c r="J548" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
       <c r="K548"/>
       <c r="L548" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="M548" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N548" t="s">
-        <v>4159</v>
-      </c>
-      <c r="O548" t="s">
+        <v>1441</v>
+      </c>
+      <c r="N548"/>
+      <c r="O548"/>
+      <c r="P548" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q548" t="s">
         <v>4160</v>
       </c>
-      <c r="P548" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q548" t="s">
-        <v>545</v>
-      </c>
       <c r="R548" t="s">
-        <v>2108</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B549" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C549" t="s">
         <v>4161</v>
@@ -40323,7 +40343,7 @@
         <v>4163</v>
       </c>
       <c r="F549" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="G549" t="s">
         <v>4164</v>
@@ -40337,81 +40357,81 @@
       </c>
       <c r="K549"/>
       <c r="L549" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="M549" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N549"/>
-      <c r="O549"/>
+        <v>1055</v>
+      </c>
+      <c r="N549" t="s">
+        <v>4167</v>
+      </c>
+      <c r="O549" t="s">
+        <v>4168</v>
+      </c>
       <c r="P549" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q549" t="s">
-        <v>1689</v>
+        <v>545</v>
       </c>
       <c r="R549" t="s">
-        <v>4167</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B550" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C550" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
       <c r="D550" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="E550" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="F550" t="s">
         <v>297</v>
       </c>
       <c r="G550" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
       <c r="H550" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="I550"/>
       <c r="J550" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="K550"/>
       <c r="L550" t="s">
         <v>528</v>
       </c>
       <c r="M550" t="s">
-        <v>597</v>
-      </c>
-      <c r="N550" t="s">
-        <v>4174</v>
-      </c>
-      <c r="O550" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N550"/>
+      <c r="O550"/>
+      <c r="P550" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q550" t="s">
+        <v>1689</v>
+      </c>
+      <c r="R550" t="s">
         <v>4175</v>
-      </c>
-      <c r="P550" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q550" t="s">
-        <v>65</v>
-      </c>
-      <c r="R550" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B551" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C551" t="s">
         <v>4176</v>
@@ -40423,7 +40443,7 @@
         <v>4178</v>
       </c>
       <c r="F551" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="G551" t="s">
         <v>4179</v>
@@ -40437,181 +40457,181 @@
       </c>
       <c r="K551"/>
       <c r="L551" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="M551" t="s">
-        <v>814</v>
-      </c>
-      <c r="N551"/>
-      <c r="O551"/>
+        <v>597</v>
+      </c>
+      <c r="N551" t="s">
+        <v>4182</v>
+      </c>
+      <c r="O551" t="s">
+        <v>4183</v>
+      </c>
       <c r="P551" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q551" t="s">
-        <v>735</v>
+        <v>65</v>
       </c>
       <c r="R551" t="s">
-        <v>2133</v>
+        <v>695</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B552" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C552" t="s">
-        <v>4182</v>
+        <v>4184</v>
       </c>
       <c r="D552" t="s">
-        <v>4110</v>
+        <v>4185</v>
       </c>
       <c r="E552" t="s">
-        <v>4183</v>
+        <v>4186</v>
       </c>
       <c r="F552" t="s">
         <v>391</v>
       </c>
       <c r="G552" t="s">
-        <v>4184</v>
+        <v>4187</v>
       </c>
       <c r="H552" t="s">
-        <v>4185</v>
+        <v>4188</v>
       </c>
       <c r="I552"/>
       <c r="J552" t="s">
-        <v>4186</v>
+        <v>4189</v>
       </c>
       <c r="K552"/>
       <c r="L552" t="s">
-        <v>4128</v>
+        <v>514</v>
       </c>
       <c r="M552" t="s">
-        <v>506</v>
-      </c>
-      <c r="N552" t="s">
-        <v>4187</v>
-      </c>
-      <c r="O552" t="s">
-        <v>4188</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="N552"/>
+      <c r="O552"/>
       <c r="P552" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q552" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="R552" t="s">
-        <v>4189</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B553" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C553" t="s">
         <v>4190</v>
       </c>
       <c r="D553" t="s">
+        <v>4118</v>
+      </c>
+      <c r="E553" t="s">
         <v>4191</v>
       </c>
-      <c r="E553" t="s">
+      <c r="F553" t="s">
+        <v>391</v>
+      </c>
+      <c r="G553" t="s">
         <v>4192</v>
       </c>
-      <c r="F553" t="s">
-        <v>413</v>
-      </c>
-      <c r="G553" t="s">
+      <c r="H553" t="s">
         <v>4193</v>
-      </c>
-      <c r="H553" t="s">
-        <v>4194</v>
       </c>
       <c r="I553"/>
       <c r="J553" t="s">
-        <v>4195</v>
+        <v>4194</v>
       </c>
       <c r="K553"/>
       <c r="L553" t="s">
-        <v>575</v>
+        <v>4136</v>
       </c>
       <c r="M553" t="s">
+        <v>506</v>
+      </c>
+      <c r="N553" t="s">
+        <v>4195</v>
+      </c>
+      <c r="O553" t="s">
         <v>4196</v>
       </c>
-      <c r="N553"/>
-      <c r="O553"/>
       <c r="P553" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q553" t="s">
-        <v>1953</v>
+        <v>749</v>
       </c>
       <c r="R553" t="s">
-        <v>663</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B554" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C554" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="D554" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
       <c r="E554" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="F554" t="s">
         <v>413</v>
       </c>
       <c r="G554" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="H554" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="I554"/>
       <c r="J554" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="K554"/>
       <c r="L554" t="s">
-        <v>1183</v>
+        <v>575</v>
       </c>
       <c r="M554" t="s">
-        <v>4152</v>
-      </c>
-      <c r="N554" t="s">
-        <v>4203</v>
-      </c>
-      <c r="O554" t="s">
         <v>4204</v>
       </c>
+      <c r="N554"/>
+      <c r="O554"/>
       <c r="P554" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q554" t="s">
-        <v>1055</v>
+        <v>1953</v>
       </c>
       <c r="R554" t="s">
-        <v>1293</v>
+        <v>663</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B555" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C555" t="s">
         <v>4205</v>
@@ -40623,143 +40643,147 @@
         <v>4207</v>
       </c>
       <c r="F555" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="G555" t="s">
         <v>4208</v>
       </c>
       <c r="H555" t="s">
-        <v>3349</v>
+        <v>4209</v>
       </c>
       <c r="I555"/>
       <c r="J555" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="K555"/>
       <c r="L555" t="s">
-        <v>583</v>
+        <v>1183</v>
       </c>
       <c r="M555" t="s">
-        <v>704</v>
-      </c>
-      <c r="N555"/>
-      <c r="O555"/>
+        <v>4160</v>
+      </c>
+      <c r="N555" t="s">
+        <v>4211</v>
+      </c>
+      <c r="O555" t="s">
+        <v>4212</v>
+      </c>
       <c r="P555" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q555" t="s">
-        <v>1487</v>
+        <v>1055</v>
       </c>
       <c r="R555" t="s">
-        <v>2413</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B556" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="C556" t="s">
-        <v>4210</v>
+        <v>4213</v>
       </c>
       <c r="D556" t="s">
-        <v>4211</v>
+        <v>4214</v>
       </c>
       <c r="E556" t="s">
-        <v>4212</v>
+        <v>4215</v>
       </c>
       <c r="F556" t="s">
         <v>438</v>
       </c>
       <c r="G556" t="s">
-        <v>4213</v>
+        <v>4216</v>
       </c>
       <c r="H556" t="s">
-        <v>4214</v>
+        <v>3349</v>
       </c>
       <c r="I556"/>
       <c r="J556" t="s">
-        <v>4215</v>
+        <v>4217</v>
       </c>
       <c r="K556"/>
       <c r="L556" t="s">
-        <v>4128</v>
+        <v>583</v>
       </c>
       <c r="M556" t="s">
-        <v>4216</v>
-      </c>
-      <c r="N556" t="s">
-        <v>4217</v>
-      </c>
-      <c r="O556" t="s">
-        <v>4218</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="N556"/>
+      <c r="O556"/>
       <c r="P556" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q556" t="s">
-        <v>137</v>
+        <v>1487</v>
       </c>
       <c r="R556" t="s">
-        <v>2653</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B557" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C557" t="s">
+        <v>4218</v>
+      </c>
+      <c r="D557" t="s">
         <v>4219</v>
       </c>
-      <c r="D557" t="s">
+      <c r="E557" t="s">
         <v>4220</v>
       </c>
-      <c r="E557" t="s">
+      <c r="F557" t="s">
+        <v>438</v>
+      </c>
+      <c r="G557" t="s">
         <v>4221</v>
       </c>
-      <c r="F557" t="s">
-        <v>464</v>
-      </c>
-      <c r="G557" t="s">
+      <c r="H557" t="s">
         <v>4222</v>
-      </c>
-      <c r="H557" t="s">
-        <v>4223</v>
       </c>
       <c r="I557"/>
       <c r="J557" t="s">
-        <v>4224</v>
+        <v>4223</v>
       </c>
       <c r="K557"/>
       <c r="L557" t="s">
-        <v>521</v>
+        <v>4136</v>
       </c>
       <c r="M557" t="s">
+        <v>4224</v>
+      </c>
+      <c r="N557" t="s">
         <v>4225</v>
       </c>
-      <c r="N557"/>
-      <c r="O557"/>
+      <c r="O557" t="s">
+        <v>4226</v>
+      </c>
       <c r="P557" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q557" t="s">
-        <v>4226</v>
+        <v>137</v>
       </c>
       <c r="R557" t="s">
-        <v>3193</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B558" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C558" t="s">
         <v>4227</v>
@@ -40785,51 +40809,47 @@
       </c>
       <c r="K558"/>
       <c r="L558" t="s">
-        <v>1180</v>
+        <v>521</v>
       </c>
       <c r="M558" t="s">
         <v>4233</v>
       </c>
-      <c r="N558" t="s">
+      <c r="N558"/>
+      <c r="O558"/>
+      <c r="P558" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q558" t="s">
         <v>4234</v>
       </c>
-      <c r="O558" t="s">
-        <v>4235</v>
-      </c>
-      <c r="P558" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q558" t="s">
-        <v>2568</v>
-      </c>
       <c r="R558" t="s">
-        <v>1083</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B559" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="C559" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D559" t="s">
         <v>4236</v>
       </c>
-      <c r="D559" t="s">
+      <c r="E559" t="s">
         <v>4237</v>
-      </c>
-      <c r="E559" t="s">
-        <v>4238</v>
       </c>
       <c r="F559" t="s">
         <v>464</v>
       </c>
       <c r="G559" t="s">
+        <v>4238</v>
+      </c>
+      <c r="H559" t="s">
         <v>4239</v>
-      </c>
-      <c r="H559" t="s">
-        <v>3644</v>
       </c>
       <c r="I559"/>
       <c r="J559" t="s">
@@ -40837,72 +40857,124 @@
       </c>
       <c r="K559"/>
       <c r="L559" t="s">
-        <v>1244</v>
+        <v>1180</v>
       </c>
       <c r="M559" t="s">
-        <v>695</v>
-      </c>
-      <c r="N559"/>
-      <c r="O559"/>
+        <v>4241</v>
+      </c>
+      <c r="N559" t="s">
+        <v>4242</v>
+      </c>
+      <c r="O559" t="s">
+        <v>4243</v>
+      </c>
       <c r="P559" t="s">
-        <v>3951</v>
+        <v>3959</v>
       </c>
       <c r="Q559" t="s">
-        <v>4241</v>
+        <v>2568</v>
       </c>
       <c r="R559" t="s">
-        <v>74</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B560" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C560" t="s">
-        <v>4242</v>
+        <v>4244</v>
       </c>
       <c r="D560" t="s">
-        <v>4243</v>
+        <v>4245</v>
       </c>
       <c r="E560" t="s">
-        <v>4244</v>
+        <v>4246</v>
       </c>
       <c r="F560" t="s">
         <v>464</v>
       </c>
       <c r="G560" t="s">
-        <v>4245</v>
+        <v>4247</v>
       </c>
       <c r="H560" t="s">
-        <v>3670</v>
+        <v>3652</v>
       </c>
       <c r="I560"/>
       <c r="J560" t="s">
-        <v>4246</v>
+        <v>4248</v>
       </c>
       <c r="K560"/>
       <c r="L560" t="s">
-        <v>4247</v>
+        <v>1244</v>
       </c>
       <c r="M560" t="s">
-        <v>4248</v>
-      </c>
-      <c r="N560" t="s">
+        <v>695</v>
+      </c>
+      <c r="N560"/>
+      <c r="O560"/>
+      <c r="P560" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q560" t="s">
         <v>4249</v>
       </c>
-      <c r="O560" t="s">
+      <c r="R560" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>496</v>
+      </c>
+      <c r="B561" t="s">
+        <v>497</v>
+      </c>
+      <c r="C561" t="s">
         <v>4250</v>
       </c>
-      <c r="P560" t="s">
-        <v>3951</v>
-      </c>
-      <c r="Q560" t="s">
+      <c r="D561" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E561" t="s">
+        <v>4252</v>
+      </c>
+      <c r="F561" t="s">
+        <v>464</v>
+      </c>
+      <c r="G561" t="s">
+        <v>4253</v>
+      </c>
+      <c r="H561" t="s">
+        <v>3678</v>
+      </c>
+      <c r="I561"/>
+      <c r="J561" t="s">
+        <v>4254</v>
+      </c>
+      <c r="K561"/>
+      <c r="L561" t="s">
+        <v>4255</v>
+      </c>
+      <c r="M561" t="s">
+        <v>4256</v>
+      </c>
+      <c r="N561" t="s">
+        <v>4257</v>
+      </c>
+      <c r="O561" t="s">
+        <v>4258</v>
+      </c>
+      <c r="P561" t="s">
+        <v>3959</v>
+      </c>
+      <c r="Q561" t="s">
         <v>1996</v>
       </c>
-      <c r="R560" t="s">
+      <c r="R561" t="s">
         <v>937</v>
       </c>
     </row>
